--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_596.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_596.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32123-d84426-Reviews-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>148</t>
   </si>
   <si>
     <t>?</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_596.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_596.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="569">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1608 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r588475709-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>32123</t>
+  </si>
+  <si>
+    <t>84426</t>
+  </si>
+  <si>
+    <t>588475709</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Mrs</t>
+  </si>
+  <si>
+    <t>Ck in ladies friendly and informative.  However I had asked on line and called ahead to be close to elevator and have extra towels.  We were quite far from elevator and had to ask front desk for additional towels. Not happy.  The breakfast area is very small. My family had to sit at two tables and that only left two tables for others.  The listed time for end of breakfast is 9:30.   We went down at 8:30 and many items were very low or totally gone.  I asked to have items replenished and was told no.  Really not happy!!  Room was average.  Hotel definitely needs to be refurbished- new carpet especially.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Ck in ladies friendly and informative.  However I had asked on line and called ahead to be close to elevator and have extra towels.  We were quite far from elevator and had to ask front desk for additional towels. Not happy.  The breakfast area is very small. My family had to sit at two tables and that only left two tables for others.  The listed time for end of breakfast is 9:30.   We went down at 8:30 and many items were very low or totally gone.  I asked to have items replenished and was told no.  Really not happy!!  Room was average.  Hotel definitely needs to be refurbished- new carpet especially.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r587257566-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>587257566</t>
+  </si>
+  <si>
+    <t>06/13/2018</t>
+  </si>
+  <si>
+    <t>Lousy - will not stay again</t>
+  </si>
+  <si>
+    <t>Bad experience. Their shuttle bus from airport takes forever to pick you up. Be prepared to wait for half hour or more. Room musty needs to be aired. Carpets itchy need to be cleaned. Mosquitoes in the room.  Worst experience they would not serve breakfast in the morning at 6:30am even though the board on top says complimentary breakfast from 6:30am. Very rude kid sitting behind desk had no intention of helping and near threatened violence when asked reason why they would not even serve even bread from the kitchen - though my contract said complimentary breakfast. Had to leave without breakfast.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r587079314-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>587079314</t>
+  </si>
+  <si>
+    <t>06/12/2018</t>
+  </si>
+  <si>
+    <t>really unfortunately awful</t>
+  </si>
+  <si>
+    <t>I came early and could not check in; OK they stored my bag.  I had a late meeting and got back at 10.  Up I went to my room:  the bed was not made, linens all over the floor.  I called down and the clerk said she would be right up.  So I assumed it would be to make my bed and unpacked a few things.  20 min later she appeared...I had to pack up and move to a different room.  The new room was dirty, carpet stains, and on the street so noisy....Oh, then I went to turn on the news and the TV did not turn on.  I called her and her response: "mam. do you really want to watch tv now?"  Really???????  She offered to comp the price,ok.  Then getting into bed: NO BLANKET.  I give up.  And stains on the carpet and smells like urine.MoreShow less</t>
+  </si>
+  <si>
+    <t>I came early and could not check in; OK they stored my bag.  I had a late meeting and got back at 10.  Up I went to my room:  the bed was not made, linens all over the floor.  I called down and the clerk said she would be right up.  So I assumed it would be to make my bed and unpacked a few things.  20 min later she appeared...I had to pack up and move to a different room.  The new room was dirty, carpet stains, and on the street so noisy....Oh, then I went to turn on the news and the TV did not turn on.  I called her and her response: "mam. do you really want to watch tv now?"  Really???????  She offered to comp the price,ok.  Then getting into bed: NO BLANKET.  I give up.  And stains on the carpet and smells like urine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r529608513-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>529608513</t>
+  </si>
+  <si>
+    <t>10/03/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HORRENDOUS doesn’t even cover it </t>
+  </si>
+  <si>
+    <t>My family of 5 stayed here the night of 9/30/17 and it was so awful and disgusting I cried. We checked in late in the evening and all of my alarm bells were going off but it was too late to find new accommodations for us. The location is unsafe, the lobby is tiny and disgusting, the rooms all have doors facing out, the parking is abysmal and the rooms are DISGUSTING. Dirty floors, stained carpets and bedding, peeling walls and more. I’m 100% certain there was a drug deal going on right outside of our door. This is our first stay at a Choice Hotel that was utterly disappointing. The next night we stayed in a different choice hotel property that was a million times better. I don’t even know how this place is still in business. It’s absolutely awful. Please heed my advice if you value the safety and comfort of your family- LOOK ELSEWHERE!! MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>My family of 5 stayed here the night of 9/30/17 and it was so awful and disgusting I cried. We checked in late in the evening and all of my alarm bells were going off but it was too late to find new accommodations for us. The location is unsafe, the lobby is tiny and disgusting, the rooms all have doors facing out, the parking is abysmal and the rooms are DISGUSTING. Dirty floors, stained carpets and bedding, peeling walls and more. I’m 100% certain there was a drug deal going on right outside of our door. This is our first stay at a Choice Hotel that was utterly disappointing. The next night we stayed in a different choice hotel property that was a million times better. I don’t even know how this place is still in business. It’s absolutely awful. Please heed my advice if you value the safety and comfort of your family- LOOK ELSEWHERE!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r520755939-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>520755939</t>
+  </si>
+  <si>
+    <t>09/03/2017</t>
+  </si>
+  <si>
+    <t>Unsafe</t>
+  </si>
+  <si>
+    <t>We arrived at around 9pm after a very long flight. Check in took a little while and the lobby was very old and rundown. A photocopy of my credit card and passport was taken. The hotel is very old and run down and not in a great area. There are lots of unsavoury people walking around the hotel. Our room was on the 3rd floor right at the end of the open corridors. On exiting the list all we could smell was drugs and this lasted pretty much to our room. It was loud in the hotel with people shouting and we didn't feel safe. So much so we left at 7am after a very disturbed nights sleep. The rooms were ok. Clean enough and we're in ok condition so the actual room wasn't a problem. I wouldn't stay again due to safety concerns and I wouldn't recommend to families for this very same issue. We are a late 20s couple not from the safest city so to feel unsafe here wasn't good. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We arrived at around 9pm after a very long flight. Check in took a little while and the lobby was very old and rundown. A photocopy of my credit card and passport was taken. The hotel is very old and run down and not in a great area. There are lots of unsavoury people walking around the hotel. Our room was on the 3rd floor right at the end of the open corridors. On exiting the list all we could smell was drugs and this lasted pretty much to our room. It was loud in the hotel with people shouting and we didn't feel safe. So much so we left at 7am after a very disturbed nights sleep. The rooms were ok. Clean enough and we're in ok condition so the actual room wasn't a problem. I wouldn't stay again due to safety concerns and I wouldn't recommend to families for this very same issue. We are a late 20s couple not from the safest city so to feel unsafe here wasn't good. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r509125354-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>509125354</t>
+  </si>
+  <si>
+    <t>08/05/2017</t>
+  </si>
+  <si>
+    <t>Not too bad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Older than I thought it would be and disappointed when we first arrived. However, we've been here all week and I must say it's not as bad as my first impression was. My room is clean and housekeeping lady straightens our room up and replenishes necessities daily. Front desk staff very accommodating as well. All in all, the motel is just an older building than I saw in the pictures but not a bad place. I would stay here again. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r486957673-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>486957673</t>
+  </si>
+  <si>
+    <t>05/23/2017</t>
+  </si>
+  <si>
+    <t>overcharged</t>
+  </si>
+  <si>
+    <t>Im still trying to get a refund for days they charged and we didn't stay. I have been given the run around by staff and manager and now contacting corporate.  They charged us $350 dollars for days we didn't even stay at this hotel, and now they don't have answers and no refund as of yet. Its been 3 weeks now.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r484429586-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>484429586</t>
+  </si>
+  <si>
+    <t>05/15/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was alright. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was alright. The room had its problems and the parking was horrible. Check in was great. I checked in early and got the room. The room had patched up holes in the wall. The electrical sockets covers were broken. There was a hole in the bath tub. I was on the 3rd floor and parts of the floor were sinking and felt like I was about to fall to the 2nd floor. </t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r476184883-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>476184883</t>
+  </si>
+  <si>
+    <t>04/16/2017</t>
+  </si>
+  <si>
+    <t>it was much better 2 yrs ago</t>
+  </si>
+  <si>
+    <t>the people were really nice and tried to accommodate us  the bad part about being here are is that people smoke in the walkways when you don't smoke that smell is awful the net give me whatever else you need breakfast was free Internet was good it's close to an intersection so if you're facing that direction you could hear a little bit of noise it was not bad where I was at</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r470408956-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>470408956</t>
+  </si>
+  <si>
+    <t>03/26/2017</t>
+  </si>
+  <si>
+    <t>Rather go to the Bates motel</t>
+  </si>
+  <si>
+    <t>First off when we saw this hotel, it look like Compton and the Bates motel had a baby. This was the only hotel when we saw 4 cops. One case had someones stuff stolen and the other had a tweaker get into a fight with his wife. What kind of a hotel is this. And the pool is nasty. It would be a lot safer and cleaner if you jump into nuclear waste then that pool.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r468821548-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>468821548</t>
+  </si>
+  <si>
+    <t>03/20/2017</t>
+  </si>
+  <si>
+    <t>hotel review</t>
+  </si>
+  <si>
+    <t>This is an older establishment.  The photo doesn't show that it is near the train trackand a busy, noisy highway.  The wall are very thin, can hear everything in the next room.  The room was clean, but put in a non-smoking room that smelled of smokeand had burn marks in the carpet.  Was schedule to stay in the same place a week later.  Cancelled that reservation and went elsewhere.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r466398174-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>466398174</t>
+  </si>
+  <si>
+    <t>03/11/2017</t>
+  </si>
+  <si>
+    <t>Disappointing</t>
+  </si>
+  <si>
+    <t>My husband and I needed a hotel close to the airport so in that respect it met our needs. The room was clean but the hotel needs updating. We were on the top floor. As a result of heavy rain, we had a leak from the ceiling. We called the front desk and maintenance checked it out but never returned. Around 11PM, we had another leak behind the air conditioner. We were not sure if it was coming from the AC unit or the wall behind the AC unit. It was late and we were checking out the next day so we put the ice bucket under it and emptied it four times during the night.  Breakfast was ok. There were enough choices and good coffee. But the breakfast room was very very small.  It was 3 or 4 small tables. There was a large group of students in the morning so not enough tables/chairs. Definitely not a good experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I needed a hotel close to the airport so in that respect it met our needs. The room was clean but the hotel needs updating. We were on the top floor. As a result of heavy rain, we had a leak from the ceiling. We called the front desk and maintenance checked it out but never returned. Around 11PM, we had another leak behind the air conditioner. We were not sure if it was coming from the AC unit or the wall behind the AC unit. It was late and we were checking out the next day so we put the ice bucket under it and emptied it four times during the night.  Breakfast was ok. There were enough choices and good coffee. But the breakfast room was very very small.  It was 3 or 4 small tables. There was a large group of students in the morning so not enough tables/chairs. Definitely not a good experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r443878139-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>443878139</t>
+  </si>
+  <si>
+    <t>12/12/2016</t>
+  </si>
+  <si>
+    <t>Very close to train tracks</t>
+  </si>
+  <si>
+    <t>The hotel and its room were nice enough. The breakfast offered was good. But be aware that there is a train track1/4 block away from the property, and the train's horn can be heard from inside the room, so if noise bothers you, don't stay here.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r442245182-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>442245182</t>
+  </si>
+  <si>
+    <t>12/05/2016</t>
+  </si>
+  <si>
+    <t>road trip along the west coast</t>
+  </si>
+  <si>
+    <t>cousin and I stopped about 9p.m.  asked for handicapped room....one was available...we took elevator to the upper level and walked a long, long way from elevator along an outside walkway to get to the room....the room was very dreary...the TV did not work...and several lights did not work....the bathroom left much to be desired...we left early next morning...and did not eat breakfast there....the parking was unhandy.... appeared to be a new person at the check in desk...who had to call her manager for assistance in checking us in....this place will do in a pinch...however, if we have other options we probably would not stay here again.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r417058191-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>417058191</t>
+  </si>
+  <si>
+    <t>09/11/2016</t>
+  </si>
+  <si>
+    <t>A bit out of the way</t>
+  </si>
+  <si>
+    <t>We stayed here for 2 nights with 2 young children.It was a bit out of the way, nice and close to Burbank train station.Jack in the box restaurant right next door was convenient, room was comfortable and we arrived early and we were able to check in early which was nice.We felt a bit unsafe in the area at night, and the train blew its horn each time it passes the hotel due to the crossing. Didn't affect us , but was a bit noisy.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r386657125-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>386657125</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>Needed a place to sleep</t>
+  </si>
+  <si>
+    <t>Not my first choice of hotels, you get what you pay...rooms are shabby and damp smelling. I had to find a hotel quickly and didn't want to pay 300$ for just an overnight. At least, parking is free and the pool was working well. This is ok for just a stop over with no expectations.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r380652832-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>380652832</t>
+  </si>
+  <si>
+    <t>06/07/2016</t>
+  </si>
+  <si>
+    <t>Worst experience EVER!</t>
+  </si>
+  <si>
+    <t>I booked a non smoking room on line.  When I got there the room reaked of cigarettes, there were cigarette burns in the curtains, it was completely gross.  I went to the desk to get a refund and was denied.  The desk clerk even called the manager, Mita Vaghashia.  He was rude and wouldn't work with me at all.  I had to get another room at another hotel, so not only did I lose $158.00 because they wouldn't refund my money, but they actually tried,TWICE, TO CHARGE MY CARD AN ADDITIONAL $185.00 a couple hours later.  Horrible!!!!!!</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r371641111-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>371641111</t>
+  </si>
+  <si>
+    <t>05/09/2016</t>
+  </si>
+  <si>
+    <t>Loud train and sketchy location</t>
+  </si>
+  <si>
+    <t>Stayed here with kids to visit universal studios. Ive gotta say, this place is very sketchy looking. Next to an alley where people are acting strange. Was a bit worried about what our room was gonna look like. Well to my surprise, It was nice and clean. Very comfy. But if u plan on sleeping in or are a light sleeper forget about it. Train runs right in front of hotel honking horn every time it passes. Very annoying. Also bridge work going on so construction work is very loud. Also hotel stated they have a shuttle. Well they dont! Breakfast wasnt a hit either. Will not be returning.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r364980175-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>364980175</t>
+  </si>
+  <si>
+    <t>04/17/2016</t>
+  </si>
+  <si>
+    <t>Worst</t>
+  </si>
+  <si>
+    <t>I am not one to write reviews. Other motels have canceled when the reservation was non cancellable but after calling Choice Hotels and Quality Inn Burbank,  this manager absolutely would not. This already tells you how desperate they are. Price of one room was $110! Which included tax. One room was already OCCUPIED so we had to wait for another room. Another room had a leak with buckets and water damage. Loud noises also in each room.  Don't waste your time and money!  Never stay here again!!!!!!!</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r359438440-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>359438440</t>
+  </si>
+  <si>
+    <t>03/28/2016</t>
+  </si>
+  <si>
+    <t>Quite Amazing</t>
+  </si>
+  <si>
+    <t>Room was very clean. Continental breakfast was very good and yummy with many varieties. The outside décor with rose plants gives us a heart touching experience.High internet speedy access. very nearby to airport premises</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r356888436-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>356888436</t>
+  </si>
+  <si>
+    <t>03/19/2016</t>
+  </si>
+  <si>
+    <t>Not horrible but leaves you wishing you were elsewhere</t>
+  </si>
+  <si>
+    <t>This was close to where so old friends live in Burbank so we gave it a try.It's an older property and seemed clean enough but the parking sucks, the train noise was over my limit.It's pretty bad when you have been up 20 hours and then a train shakes your room every 2 hours.The breakfast room is the smallest I have ever seen...the food was sort of ok, but by then we where ready to run and we did!  Never again</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r354019605-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>354019605</t>
+  </si>
+  <si>
+    <t>03/09/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bad experience here </t>
+  </si>
+  <si>
+    <t xml:space="preserve">we booked our room 5 days earlier . When we arrived at the hotel  the guy from the frontdesk said that our card didn't worked ,but nobody bothered to let us know this earlier  . This wasn't nice at all . The frontdesk guy was angry ,he said that everything is booked . We went out and we checked on the Internet , they still had 2 or 3 rooms available  . Finally, after 30 minutes we got a room . The breakfast was pretty good but the place was so small , they had like 2 tables . </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r335272382-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>335272382</t>
+  </si>
+  <si>
+    <t>12/27/2015</t>
+  </si>
+  <si>
+    <t>Staff is very nice</t>
+  </si>
+  <si>
+    <t>I drove a bus group to stay here and the staff was very nice. We had the up at 6 am and out of the hotel by 7 am so the staff had breakfast set up early for us. Which was way above and beyond what they do. The food was nice. Eggs and bacon, bagels, Fresh fruit, good coffee and apple juice and orange juice.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r332166583-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>332166583</t>
+  </si>
+  <si>
+    <t>12/11/2015</t>
+  </si>
+  <si>
+    <t>KIND AND HELPFUL STAFF</t>
+  </si>
+  <si>
+    <t>Our room was perfect, it had everything we needed.  It was important for us to have a refrigerator in our room for my medicine.  We had a slight problem with the sink stopper called the front desk and within minutes the problem was solved.  The room was very comfortable and clean.  Staff and Service very kind and helpful.  We'll be back!!</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r307961813-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>307961813</t>
+  </si>
+  <si>
+    <t>09/07/2015</t>
+  </si>
+  <si>
+    <t>Stayed here before and I'll stay again</t>
+  </si>
+  <si>
+    <t>My boyfriend and I stayed here for one night before attending universal studios. The parking is close and convenient. Not too far down the road is a shopping center with great food choices. The room was nice and clean just to our liking, we will go back!</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r293937155-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>293937155</t>
+  </si>
+  <si>
+    <t>07/29/2015</t>
+  </si>
+  <si>
+    <t>Burbank Quality lower</t>
+  </si>
+  <si>
+    <t>the room was ok and for the type of price pretty descent.the breakfast is ok if you're not a food addict.the hotel is well located next to entrance and exit from the Highway.the worst thing is the train noise..hilarious for one day...but not everyday.I read the previous comment but I'm sorry no graffity on the elevator wall.No danger in the zone.there's a Bonus: A pool..we didn't try it cause it's small and near the road and the jack in the box's park a lot but a least there's one.I saw people used it.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r291432559-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>291432559</t>
+  </si>
+  <si>
+    <t>07/22/2015</t>
+  </si>
+  <si>
+    <t>It's A Quality Inn</t>
+  </si>
+  <si>
+    <t>I read a lot of bad reviews of this place, but booked anyway since they seemed to be expecting a lot more than any other Quality Inn I've ever stayed in. The girl at the front desk (I think her name was Vanessa) was incredibly helpful. She got me checked in quickly and answered a few questions I had about the hotel and the best ways to get around (I only stayed here in order to meet friends who got in a day after me before going down to Anaheim). When I got up to the room neither of my keys worked, I tried multiple times before going back down to the desk. She apologized and remade them, but they still didn't work. She packed up all of her things and came with me to the room to try and find the problem, when she used her key it worked right away so she told me to come back down to the desk when I was ready and she'd make me brand new ones and those ones worked perfectly. The room is nothing special but it's not dirty. There was one section of wall paper in the bathroom that had been peeled off but I hardly consider that uncleanly. The floor felt like it had been humid (I got in pretty late in the evening and don't know what it was like during the day) but I turned on the...I read a lot of bad reviews of this place, but booked anyway since they seemed to be expecting a lot more than any other Quality Inn I've ever stayed in. The girl at the front desk (I think her name was Vanessa) was incredibly helpful. She got me checked in quickly and answered a few questions I had about the hotel and the best ways to get around (I only stayed here in order to meet friends who got in a day after me before going down to Anaheim). When I got up to the room neither of my keys worked, I tried multiple times before going back down to the desk. She apologized and remade them, but they still didn't work. She packed up all of her things and came with me to the room to try and find the problem, when she used her key it worked right away so she told me to come back down to the desk when I was ready and she'd make me brand new ones and those ones worked perfectly. The room is nothing special but it's not dirty. There was one section of wall paper in the bathroom that had been peeled off but I hardly consider that uncleanly. The floor felt like it had been humid (I got in pretty late in the evening and don't know what it was like during the day) but I turned on the A/C and by the time I got out of the bed in the morning it was fine. Yes the walls are thin, yes there is a lot of noise but again this is a Quality Inn not a 5-Star resort. I was able to get a good night's sleep, shower, breakfast and be on my way again so I really can't complain.If I did have something to complain about it would be that the wifi wasn't working until I got up in the morning. When I was checking in the girl at the desk was on the phone with someone asking them to fix it though so I know that things happen sometimes. I would warn people about that if they are traveling for business and don't have their own personal hotspots for backup. If I ever come back to Los Angeles &amp; fly into Burbank I would definitely stay here again. I flew into LAX but even my Uber driver said that staying out here was better than staying around LAX, however I'm a 22 year old traveling alone from the midwest so I am sure for someone used to really big cities it wouldn't be a problem.MoreShow less</t>
+  </si>
+  <si>
+    <t>I read a lot of bad reviews of this place, but booked anyway since they seemed to be expecting a lot more than any other Quality Inn I've ever stayed in. The girl at the front desk (I think her name was Vanessa) was incredibly helpful. She got me checked in quickly and answered a few questions I had about the hotel and the best ways to get around (I only stayed here in order to meet friends who got in a day after me before going down to Anaheim). When I got up to the room neither of my keys worked, I tried multiple times before going back down to the desk. She apologized and remade them, but they still didn't work. She packed up all of her things and came with me to the room to try and find the problem, when she used her key it worked right away so she told me to come back down to the desk when I was ready and she'd make me brand new ones and those ones worked perfectly. The room is nothing special but it's not dirty. There was one section of wall paper in the bathroom that had been peeled off but I hardly consider that uncleanly. The floor felt like it had been humid (I got in pretty late in the evening and don't know what it was like during the day) but I turned on the...I read a lot of bad reviews of this place, but booked anyway since they seemed to be expecting a lot more than any other Quality Inn I've ever stayed in. The girl at the front desk (I think her name was Vanessa) was incredibly helpful. She got me checked in quickly and answered a few questions I had about the hotel and the best ways to get around (I only stayed here in order to meet friends who got in a day after me before going down to Anaheim). When I got up to the room neither of my keys worked, I tried multiple times before going back down to the desk. She apologized and remade them, but they still didn't work. She packed up all of her things and came with me to the room to try and find the problem, when she used her key it worked right away so she told me to come back down to the desk when I was ready and she'd make me brand new ones and those ones worked perfectly. The room is nothing special but it's not dirty. There was one section of wall paper in the bathroom that had been peeled off but I hardly consider that uncleanly. The floor felt like it had been humid (I got in pretty late in the evening and don't know what it was like during the day) but I turned on the A/C and by the time I got out of the bed in the morning it was fine. Yes the walls are thin, yes there is a lot of noise but again this is a Quality Inn not a 5-Star resort. I was able to get a good night's sleep, shower, breakfast and be on my way again so I really can't complain.If I did have something to complain about it would be that the wifi wasn't working until I got up in the morning. When I was checking in the girl at the desk was on the phone with someone asking them to fix it though so I know that things happen sometimes. I would warn people about that if they are traveling for business and don't have their own personal hotspots for backup. If I ever come back to Los Angeles &amp; fly into Burbank I would definitely stay here again. I flew into LAX but even my Uber driver said that staying out here was better than staying around LAX, however I'm a 22 year old traveling alone from the midwest so I am sure for someone used to really big cities it wouldn't be a problem.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r278108655-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>278108655</t>
+  </si>
+  <si>
+    <t>06/05/2015</t>
+  </si>
+  <si>
+    <t>Eh...ok for a single person or a couple for one night</t>
+  </si>
+  <si>
+    <t>Not the best place in the world but if you can tolerate noise for one night, then it's fine. I, unfortunately, had a splitting headache that night and it sounded like construction was going on outside until about 3:30am. Just shortly after that, the train went by blowing its horn. I can't tell you how many times that train went by but needless to say, I didn't get much sleep. Oh and there is about a 1 inch gap under the door for anything that can crawl to come under there. A bit creepy...thankfully, nothing did come crawling in. The continental free breakfast was a bit small and the other hotel guests didn't seem to have manners to move out of the way and let other people in so we just walked next door to Jack in the Box for breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Not the best place in the world but if you can tolerate noise for one night, then it's fine. I, unfortunately, had a splitting headache that night and it sounded like construction was going on outside until about 3:30am. Just shortly after that, the train went by blowing its horn. I can't tell you how many times that train went by but needless to say, I didn't get much sleep. Oh and there is about a 1 inch gap under the door for anything that can crawl to come under there. A bit creepy...thankfully, nothing did come crawling in. The continental free breakfast was a bit small and the other hotel guests didn't seem to have manners to move out of the way and let other people in so we just walked next door to Jack in the Box for breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r272001314-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>272001314</t>
+  </si>
+  <si>
+    <t>05/14/2015</t>
+  </si>
+  <si>
+    <t>quality Inn burbank</t>
+  </si>
+  <si>
+    <t>I made reservations thru online and the person who recommended this place lied to me. It was shabby and very old and run down place. It was so different from what I heard on the phone. The person who recommended this place didn't have any clue about this hotel. It was in a corner of place where it seems very dangerous to walk at night time. When I arrived there I was so shocked and the receptionist wad not friendly. I felt so cheated by online recommendation.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r264727948-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>264727948</t>
+  </si>
+  <si>
+    <t>04/09/2015</t>
+  </si>
+  <si>
+    <t>Fine for an overnight stop</t>
+  </si>
+  <si>
+    <t>Reasonably priced and close to Burbank Bob Hope Airport.  I'm giving it a very good rating because it is only 5 minutes away from the airport and has free shuttle.  If you are a transient traveller, it is as good a stop as any.  Have dinner before you get there, though, I'm not sure there is much else in walking distance beyond a Jack in the Box and some gas stations.  The staff was friendly and very helpful.  Breakfast included eggs, sausage, yogurt, cereal and fruit but the apples had seen better days.  The room was very decent for the price, which was also reasonable.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r257445410-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>257445410</t>
+  </si>
+  <si>
+    <t>03/03/2015</t>
+  </si>
+  <si>
+    <t>They steal stay any where eles</t>
+  </si>
+  <si>
+    <t>It is 7 am and there is literally a giant jack hammer going outside my window. Last time I stayed here I left a handmade bracelet.  I called within an hour to get it back and the maid had already taken it. I called for days and no central management ever answered or addressed the problem. The toilet was so dirty I had wash it before I used it. This place is horrid. Stay anywhere eles. 0 is a better rating for this place</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r256240146-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>256240146</t>
+  </si>
+  <si>
+    <t>02/24/2015</t>
+  </si>
+  <si>
+    <t>Horrible Place! Do not Stay there!</t>
+  </si>
+  <si>
+    <t>Had I been driving by looking for a place to stay I would have not stopped.  But since I booked online and had already paid for the room I stopped for the night.  I have never stayed at a place where there was graffiti inside the room on the walls.   I think we were the only "guest" staying there and everyone else lived there. It was like staying at a mission. I slept on top of the bed with my clothes and shoes on.  The bathroom door had a big piece of bubble gum on the lock. The towel were not only paper thin but scratchy like sand paper.  TV faded in and out.  The room in general was dirty and had an odor to it.  The sounds during the night (and I'm not talking about the freeway) kept me on edge and ready to run.  If you want sleep this is not the place for you.  I should have kept going and not stayed.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Had I been driving by looking for a place to stay I would have not stopped.  But since I booked online and had already paid for the room I stopped for the night.  I have never stayed at a place where there was graffiti inside the room on the walls.   I think we were the only "guest" staying there and everyone else lived there. It was like staying at a mission. I slept on top of the bed with my clothes and shoes on.  The bathroom door had a big piece of bubble gum on the lock. The towel were not only paper thin but scratchy like sand paper.  TV faded in and out.  The room in general was dirty and had an odor to it.  The sounds during the night (and I'm not talking about the freeway) kept me on edge and ready to run.  If you want sleep this is not the place for you.  I should have kept going and not stayed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r255679753-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>255679753</t>
+  </si>
+  <si>
+    <t>02/21/2015</t>
+  </si>
+  <si>
+    <t>Can be scary</t>
+  </si>
+  <si>
+    <t>Staff was friendly and they do try.  But - this is not a good location.  The only restaurant nearby is a Jack-in-the-Box.  Outside corridors are dark at night.  Hotel is old - but the room was clean enough  Very close to the airport and they do have a shuttle.  We left too early for breakfast - they had promised a "go-bag" breakfast but the morning clerk did not want to be bothered.  We had a "suite" at $160/night.  Much too expensive for this hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r240600746-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>240600746</t>
+  </si>
+  <si>
+    <t>11/19/2014</t>
+  </si>
+  <si>
+    <t>Quality at a reasonable price in Burbank</t>
+  </si>
+  <si>
+    <t>My friend and I stayed in a 2nd floor Executive Room with 2 Queen beds for three nights. 
+There was an abundance of soft fluffy towels in the bathroom. It was easily one of the cleanest bathrooms in a hotel (minus the Hilton suites) I've stayed in. There was good water pressure and plenty of hot water. My friend had a problem with fluctuations in temperature while she was showering, but I tend to take a slightly above warm shower and had no problems. 
+The beds were comfortable, if a bit firmer than I prefer. Linens were clean and attractive. The pillows were very nice, being a down alternative fill and of different firmnesses! Nice touch!
+We were next onto a 24-hour Jack In The Box and on a main thoroughfare, but the noise was minimal. I had no trouble sleeping.
+Only two things that were not so good; one was that we went to use the coffeemaker and found there was a old filter and coffee in it that was not cleaned. That was fine, we went downstairs and got coffee in the tiny kitchenette. 
+Second was the tiny kitchenette where they set up breakfast. The options for breakfast were fine, but you either had to use milk or pre-made vanilla creamers in your coffee. I don't like either one. Yuck. The eggs must be powdered and then reconstituted. I've never seen such gritty and odd snapped egg patties....My friend and I stayed in a 2nd floor Executive Room with 2 Queen beds for three nights. There was an abundance of soft fluffy towels in the bathroom. It was easily one of the cleanest bathrooms in a hotel (minus the Hilton suites) I've stayed in. There was good water pressure and plenty of hot water. My friend had a problem with fluctuations in temperature while she was showering, but I tend to take a slightly above warm shower and had no problems. The beds were comfortable, if a bit firmer than I prefer. Linens were clean and attractive. The pillows were very nice, being a down alternative fill and of different firmnesses! Nice touch!We were next onto a 24-hour Jack In The Box and on a main thoroughfare, but the noise was minimal. I had no trouble sleeping.Only two things that were not so good; one was that we went to use the coffeemaker and found there was a old filter and coffee in it that was not cleaned. That was fine, we went downstairs and got coffee in the tiny kitchenette. Second was the tiny kitchenette where they set up breakfast. The options for breakfast were fine, but you either had to use milk or pre-made vanilla creamers in your coffee. I don't like either one. Yuck. The eggs must be powdered and then reconstituted. I've never seen such gritty and odd snapped egg patties. Weird stuff. Go next door to Jack or have cereal or toast ;)Staff was friendly and helpful. No problems there whatsoever! I would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>My friend and I stayed in a 2nd floor Executive Room with 2 Queen beds for three nights. 
+There was an abundance of soft fluffy towels in the bathroom. It was easily one of the cleanest bathrooms in a hotel (minus the Hilton suites) I've stayed in. There was good water pressure and plenty of hot water. My friend had a problem with fluctuations in temperature while she was showering, but I tend to take a slightly above warm shower and had no problems. 
+The beds were comfortable, if a bit firmer than I prefer. Linens were clean and attractive. The pillows were very nice, being a down alternative fill and of different firmnesses! Nice touch!
+We were next onto a 24-hour Jack In The Box and on a main thoroughfare, but the noise was minimal. I had no trouble sleeping.
+Only two things that were not so good; one was that we went to use the coffeemaker and found there was a old filter and coffee in it that was not cleaned. That was fine, we went downstairs and got coffee in the tiny kitchenette. 
+Second was the tiny kitchenette where they set up breakfast. The options for breakfast were fine, but you either had to use milk or pre-made vanilla creamers in your coffee. I don't like either one. Yuck. The eggs must be powdered and then reconstituted. I've never seen such gritty and odd snapped egg patties....My friend and I stayed in a 2nd floor Executive Room with 2 Queen beds for three nights. There was an abundance of soft fluffy towels in the bathroom. It was easily one of the cleanest bathrooms in a hotel (minus the Hilton suites) I've stayed in. There was good water pressure and plenty of hot water. My friend had a problem with fluctuations in temperature while she was showering, but I tend to take a slightly above warm shower and had no problems. The beds were comfortable, if a bit firmer than I prefer. Linens were clean and attractive. The pillows were very nice, being a down alternative fill and of different firmnesses! Nice touch!We were next onto a 24-hour Jack In The Box and on a main thoroughfare, but the noise was minimal. I had no trouble sleeping.Only two things that were not so good; one was that we went to use the coffeemaker and found there was a old filter and coffee in it that was not cleaned. That was fine, we went downstairs and got coffee in the tiny kitchenette. Second was the tiny kitchenette where they set up breakfast. The options for breakfast were fine, but you either had to use milk or pre-made vanilla creamers in your coffee. I don't like either one. Yuck. The eggs must be powdered and then reconstituted. I've never seen such gritty and odd snapped egg patties. Weird stuff. Go next door to Jack or have cereal or toast ;)Staff was friendly and helpful. No problems there whatsoever! I would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r239388551-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>239388551</t>
+  </si>
+  <si>
+    <t>11/11/2014</t>
+  </si>
+  <si>
+    <t>Great location, just not for me</t>
+  </si>
+  <si>
+    <t>We picked this hotel as it was close to places we intended to visit.  The facility is old however it did seem clean.  The room was average sized, nice TV, beds were okay.  My son was able to access the free wi-fi without issue.  I guess I had higher expectations, here are the reasons we will not stay again, nor recommend this place.  Carpets are FILTHY, shower pressure was weak and the temperature would often change while we were in the middle of our showers - it got much hotter to the point of scalding!   The TV had maybe 4 channels, no CNN or national news stations, mostly analog with a bit of fuzz.  Hotel is near a train station which wakes you in the middle of the night.   Breakfast was included...a TINY counter space that housed muffins (which were very good), toast, dry english muffins, cereal, yogurt, something that was supposed to be a sausage patty &amp; scrambled egg disks which did not resemble actual meat or dairy.  The type of clientle we encountered had no regard for others.   They would take their time getting food while others stood in the lobby waiting to be able to enter the area.  There were 3 tables where a total of 8 people could sit &amp; eat.   When I was checking out I wanted to advise them of some issues however I was never asked about my stay, just my room #,...We picked this hotel as it was close to places we intended to visit.  The facility is old however it did seem clean.  The room was average sized, nice TV, beds were okay.  My son was able to access the free wi-fi without issue.  I guess I had higher expectations, here are the reasons we will not stay again, nor recommend this place.  Carpets are FILTHY, shower pressure was weak and the temperature would often change while we were in the middle of our showers - it got much hotter to the point of scalding!   The TV had maybe 4 channels, no CNN or national news stations, mostly analog with a bit of fuzz.  Hotel is near a train station which wakes you in the middle of the night.   Breakfast was included...a TINY counter space that housed muffins (which were very good), toast, dry english muffins, cereal, yogurt, something that was supposed to be a sausage patty &amp; scrambled egg disks which did not resemble actual meat or dairy.  The type of clientle we encountered had no regard for others.   They would take their time getting food while others stood in the lobby waiting to be able to enter the area.  There were 3 tables where a total of 8 people could sit &amp; eat.   When I was checking out I wanted to advise them of some issues however I was never asked about my stay, just my room #, as the person at the desk had the phone to her ear the entire time.....not even a thank you!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>We picked this hotel as it was close to places we intended to visit.  The facility is old however it did seem clean.  The room was average sized, nice TV, beds were okay.  My son was able to access the free wi-fi without issue.  I guess I had higher expectations, here are the reasons we will not stay again, nor recommend this place.  Carpets are FILTHY, shower pressure was weak and the temperature would often change while we were in the middle of our showers - it got much hotter to the point of scalding!   The TV had maybe 4 channels, no CNN or national news stations, mostly analog with a bit of fuzz.  Hotel is near a train station which wakes you in the middle of the night.   Breakfast was included...a TINY counter space that housed muffins (which were very good), toast, dry english muffins, cereal, yogurt, something that was supposed to be a sausage patty &amp; scrambled egg disks which did not resemble actual meat or dairy.  The type of clientle we encountered had no regard for others.   They would take their time getting food while others stood in the lobby waiting to be able to enter the area.  There were 3 tables where a total of 8 people could sit &amp; eat.   When I was checking out I wanted to advise them of some issues however I was never asked about my stay, just my room #,...We picked this hotel as it was close to places we intended to visit.  The facility is old however it did seem clean.  The room was average sized, nice TV, beds were okay.  My son was able to access the free wi-fi without issue.  I guess I had higher expectations, here are the reasons we will not stay again, nor recommend this place.  Carpets are FILTHY, shower pressure was weak and the temperature would often change while we were in the middle of our showers - it got much hotter to the point of scalding!   The TV had maybe 4 channels, no CNN or national news stations, mostly analog with a bit of fuzz.  Hotel is near a train station which wakes you in the middle of the night.   Breakfast was included...a TINY counter space that housed muffins (which were very good), toast, dry english muffins, cereal, yogurt, something that was supposed to be a sausage patty &amp; scrambled egg disks which did not resemble actual meat or dairy.  The type of clientle we encountered had no regard for others.   They would take their time getting food while others stood in the lobby waiting to be able to enter the area.  There were 3 tables where a total of 8 people could sit &amp; eat.   When I was checking out I wanted to advise them of some issues however I was never asked about my stay, just my room #, as the person at the desk had the phone to her ear the entire time.....not even a thank you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r232791894-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>232791894</t>
+  </si>
+  <si>
+    <t>10/05/2014</t>
+  </si>
+  <si>
+    <t>Not a bad stay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me and my wife stayed 2 nights and the room was wonderful.  Outside not that pretty but the price was great for a Weekend stay. The gentleman at front desk was pleasant. I would stay here again in a heart beat. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r224364233-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>224364233</t>
+  </si>
+  <si>
+    <t>08/25/2014</t>
+  </si>
+  <si>
+    <t>Poor experience- they dont care</t>
+  </si>
+  <si>
+    <t>One of the worst of the ChoiceHotels locations I have stayed at.VERY noisy roomdark, dirty carpetA/C blows on the drapes wildly.No hot water in showerShower handle keeps turningBreakfast area VERY small, only one or two can serve themselves at a time. None of items are being replenished. Only VERY limited seating area. No one to refill anything, or empty the trash.Staff at the front desk does not care.  WILL NEVER STAY HERE AGAIN though I am planning a number of visits to Burbank area in next 6 months.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r222749255-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>222749255</t>
+  </si>
+  <si>
+    <t>08/18/2014</t>
+  </si>
+  <si>
+    <t>Quality Inn NOT</t>
+  </si>
+  <si>
+    <t>This is one of my worst hotel stays.  When I looked on line it was showing a 3 star on your site so I thought it couldn't be that bad.  Let me tell you..  In my room the wallpaper was coming off  the wall and my walls were dirty, plus I had spider web in the corner of the room. The mini refrigerator had dings in the door on the outside.  My husband said it looked like a rundown crack hotel. My daughters room next door also had dirty walls and her air conditioner was leaking water. So when I called the front desk to see if we could move to another room they said no they were filled up. So they put blankets and towels down to help with the water leaking, cause they could not get anyone to come fix the air conitioner. I asked if I leave can i get my money back or points back they said no. I even asked the next day could we at least get some kind of discount. which they told me no they could not and that I had the choice to stay there. you. The train ran up till like 11:30pm next to hotel. The hotel was set in the parking lot of Jack in Box so all night people were placing orders for drive thru and the parking was one way in one way out. And yes they...This is one of my worst hotel stays.  When I looked on line it was showing a 3 star on your site so I thought it couldn't be that bad.  Let me tell you..  In my room the wallpaper was coming off  the wall and my walls were dirty, plus I had spider web in the corner of the room. The mini refrigerator had dings in the door on the outside.  My husband said it looked like a rundown crack hotel. My daughters room next door also had dirty walls and her air conditioner was leaking water. So when I called the front desk to see if we could move to another room they said no they were filled up. So they put blankets and towels down to help with the water leaking, cause they could not get anyone to come fix the air conitioner. I asked if I leave can i get my money back or points back they said no. I even asked the next day could we at least get some kind of discount. which they told me no they could not and that I had the choice to stay there. you. The train ran up till like 11:30pm next to hotel. The hotel was set in the parking lot of Jack in Box so all night people were placing orders for drive thru and the parking was one way in one way out. And yes they did have only like 6-9 Tv channels ..Really    Worst place everMoreShow less</t>
+  </si>
+  <si>
+    <t>This is one of my worst hotel stays.  When I looked on line it was showing a 3 star on your site so I thought it couldn't be that bad.  Let me tell you..  In my room the wallpaper was coming off  the wall and my walls were dirty, plus I had spider web in the corner of the room. The mini refrigerator had dings in the door on the outside.  My husband said it looked like a rundown crack hotel. My daughters room next door also had dirty walls and her air conditioner was leaking water. So when I called the front desk to see if we could move to another room they said no they were filled up. So they put blankets and towels down to help with the water leaking, cause they could not get anyone to come fix the air conitioner. I asked if I leave can i get my money back or points back they said no. I even asked the next day could we at least get some kind of discount. which they told me no they could not and that I had the choice to stay there. you. The train ran up till like 11:30pm next to hotel. The hotel was set in the parking lot of Jack in Box so all night people were placing orders for drive thru and the parking was one way in one way out. And yes they...This is one of my worst hotel stays.  When I looked on line it was showing a 3 star on your site so I thought it couldn't be that bad.  Let me tell you..  In my room the wallpaper was coming off  the wall and my walls were dirty, plus I had spider web in the corner of the room. The mini refrigerator had dings in the door on the outside.  My husband said it looked like a rundown crack hotel. My daughters room next door also had dirty walls and her air conditioner was leaking water. So when I called the front desk to see if we could move to another room they said no they were filled up. So they put blankets and towels down to help with the water leaking, cause they could not get anyone to come fix the air conitioner. I asked if I leave can i get my money back or points back they said no. I even asked the next day could we at least get some kind of discount. which they told me no they could not and that I had the choice to stay there. you. The train ran up till like 11:30pm next to hotel. The hotel was set in the parking lot of Jack in Box so all night people were placing orders for drive thru and the parking was one way in one way out. And yes they did have only like 6-9 Tv channels ..Really    Worst place everMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r219617899-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>219617899</t>
+  </si>
+  <si>
+    <t>08/05/2014</t>
+  </si>
+  <si>
+    <t>QUALITY INN?  Basically A Real Improper Name For The Place</t>
+  </si>
+  <si>
+    <t>We live in a city with thousands of hotel rooms...All different quality can be found there...It is Las Vegas...Usually you can't miss getting a decent place to put your head...Switch to Burbank, California...We usually stay at the Hampton Inn or the Burbank Inn...BUT they were full up and we settled on this place...we're here to see a good friend try to score some bucks on "Jeopardy"...Taping will be fun to see, but this QI is not...Run down (with a basic prison look outside) we have a total of TWELVE TV channels to view...Yep, in 2014 that is our choice TV line up...Stuff on the walls...See the pixs to check out the unintentional artwork in our room...Regardless what you pay, stay away from the QI...Our fellow room buddies were on the lower scale of life's ladder...When we walked to our room I thought we would be waylaid by the biker dude with the wife beater sweats...Everybody has to be somewhere...We just don't have to be here...Visiting Burbank, pass on the Quality Inn...MoreShow less</t>
+  </si>
+  <si>
+    <t>We live in a city with thousands of hotel rooms...All different quality can be found there...It is Las Vegas...Usually you can't miss getting a decent place to put your head...Switch to Burbank, California...We usually stay at the Hampton Inn or the Burbank Inn...BUT they were full up and we settled on this place...we're here to see a good friend try to score some bucks on "Jeopardy"...Taping will be fun to see, but this QI is not...Run down (with a basic prison look outside) we have a total of TWELVE TV channels to view...Yep, in 2014 that is our choice TV line up...Stuff on the walls...See the pixs to check out the unintentional artwork in our room...Regardless what you pay, stay away from the QI...Our fellow room buddies were on the lower scale of life's ladder...When we walked to our room I thought we would be waylaid by the biker dude with the wife beater sweats...Everybody has to be somewhere...We just don't have to be here...Visiting Burbank, pass on the Quality Inn...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r210152098-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>210152098</t>
+  </si>
+  <si>
+    <t>06/13/2014</t>
+  </si>
+  <si>
+    <t>Horrible!</t>
+  </si>
+  <si>
+    <t>We were using this hotel as a stopover on our trip not wanting to stay in L.A. proper but close to it and saw good reviews of this hotel.  For once I could not agree with any of the good things said about this place.  The only positive thing about our stay was that the room space was ok.  We got back to the hotel late after visiting with friends in LA so we were too tired to ask to switch rooms.
+Where do I start?  The air conditioner worked only well enough to take the edge off of the heat.  We turned it down as far as the thermostat would go and we both were sweating the whole night.  It would turn on for a couple of min. then shut off.
+The TV only received a few local channels with several of those fuzzy.
+There was a switch cover over the bed that was half attached looking as if it could fall any min.
+It was hard to get hot water for the shower.  The shower was warm at best.
+Then to top it all off the elevator wasn't working in the morning!  We were on the top floor and I have knee issues which causes me to have problems walking stairs so elevators are important to me.  There was no sign saying that the elevator wasn't working so we waited by it for a while thinking other people...We were using this hotel as a stopover on our trip not wanting to stay in L.A. proper but close to it and saw good reviews of this hotel.  For once I could not agree with any of the good things said about this place.  The only positive thing about our stay was that the room space was ok.  We got back to the hotel late after visiting with friends in LA so we were too tired to ask to switch rooms.Where do I start?  The air conditioner worked only well enough to take the edge off of the heat.  We turned it down as far as the thermostat would go and we both were sweating the whole night.  It would turn on for a couple of min. then shut off.The TV only received a few local channels with several of those fuzzy.There was a switch cover over the bed that was half attached looking as if it could fall any min.It was hard to get hot water for the shower.  The shower was warm at best.Then to top it all off the elevator wasn't working in the morning!  We were on the top floor and I have knee issues which causes me to have problems walking stairs so elevators are important to me.  There was no sign saying that the elevator wasn't working so we waited by it for a while thinking other people were using it.  After walking down and telling the person at the desk about it her response was that maybe they should turn on the fan by the motor as sometimes it overheats!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>We were using this hotel as a stopover on our trip not wanting to stay in L.A. proper but close to it and saw good reviews of this hotel.  For once I could not agree with any of the good things said about this place.  The only positive thing about our stay was that the room space was ok.  We got back to the hotel late after visiting with friends in LA so we were too tired to ask to switch rooms.
+Where do I start?  The air conditioner worked only well enough to take the edge off of the heat.  We turned it down as far as the thermostat would go and we both were sweating the whole night.  It would turn on for a couple of min. then shut off.
+The TV only received a few local channels with several of those fuzzy.
+There was a switch cover over the bed that was half attached looking as if it could fall any min.
+It was hard to get hot water for the shower.  The shower was warm at best.
+Then to top it all off the elevator wasn't working in the morning!  We were on the top floor and I have knee issues which causes me to have problems walking stairs so elevators are important to me.  There was no sign saying that the elevator wasn't working so we waited by it for a while thinking other people...We were using this hotel as a stopover on our trip not wanting to stay in L.A. proper but close to it and saw good reviews of this hotel.  For once I could not agree with any of the good things said about this place.  The only positive thing about our stay was that the room space was ok.  We got back to the hotel late after visiting with friends in LA so we were too tired to ask to switch rooms.Where do I start?  The air conditioner worked only well enough to take the edge off of the heat.  We turned it down as far as the thermostat would go and we both were sweating the whole night.  It would turn on for a couple of min. then shut off.The TV only received a few local channels with several of those fuzzy.There was a switch cover over the bed that was half attached looking as if it could fall any min.It was hard to get hot water for the shower.  The shower was warm at best.Then to top it all off the elevator wasn't working in the morning!  We were on the top floor and I have knee issues which causes me to have problems walking stairs so elevators are important to me.  There was no sign saying that the elevator wasn't working so we waited by it for a while thinking other people were using it.  After walking down and telling the person at the desk about it her response was that maybe they should turn on the fan by the motor as sometimes it overheats!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r210033517-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>210033517</t>
+  </si>
+  <si>
+    <t>06/12/2014</t>
+  </si>
+  <si>
+    <t>"Quality" seems to be an overstatement</t>
+  </si>
+  <si>
+    <t>I've stayed at many of the Choice Hotel properties around the country, and I chose this for a one night stay that wasn't go to break the bank (I had stayed at the Marriott for the previous three nights at double the price). This Quality Inn is sooooo tired looking. Laying in bed I couldn't believe I was staring at a "cottage cheese" ceiling. The elevator (when it worked) is slow, loud, and the interior panels are marred with graffiti. The free breakfast was ample, but holy cow, only seating for nine people tucked into an extremely small space. The only upside to the one night was the very comfortable bed. It was a surprise considering all the other downsides to the property.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>I've stayed at many of the Choice Hotel properties around the country, and I chose this for a one night stay that wasn't go to break the bank (I had stayed at the Marriott for the previous three nights at double the price). This Quality Inn is sooooo tired looking. Laying in bed I couldn't believe I was staring at a "cottage cheese" ceiling. The elevator (when it worked) is slow, loud, and the interior panels are marred with graffiti. The free breakfast was ample, but holy cow, only seating for nine people tucked into an extremely small space. The only upside to the one night was the very comfortable bed. It was a surprise considering all the other downsides to the property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r203457518-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>203457518</t>
+  </si>
+  <si>
+    <t>04/30/2014</t>
+  </si>
+  <si>
+    <t>A pleasant surprise</t>
+  </si>
+  <si>
+    <t>You can't find a better price in Burbank! The staff was friendly, and the room was clean, and had a microwave and fridge. We thought that a continental breakfast was offered, but found they had everything from cereal and muffins to yogurt, fresh fruit, and eggs and sausage! The coffee was good and strong, too. We stayed here years ago when our daughter lived in the neighborhood. Now she's back there, and we are thrilled to find that this hotel is even better than it was before! We saw new beds being put in as we were leaving. We can't wait to stay here again.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r196596450-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>196596450</t>
+  </si>
+  <si>
+    <t>03/07/2014</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r195577471-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>195577471</t>
+  </si>
+  <si>
+    <t>02/27/2014</t>
+  </si>
+  <si>
+    <t>Good for a night stopover</t>
+  </si>
+  <si>
+    <t>To start with, I saw ants in bathroom and even on bed. Now good parts. Bed was good. TV had Armenian channels, good for people who can understand Armenian language. Close to down town and if Universal City. Breakfast was just standard stuff. The Indian guy at reception wasn't courteous. I forgot the name of lady who checked me in. I needed printout of my ticket to Universal Studio and the lady said she will print it for me. I was happy and said I will collect it later. Later this Indian guy at reception, must be the grumpy guy who works in graveyard shifts, bluntly refused. In fact he said, "I have just joined, sorry can't help you, we don't have rights and what not". Thankfully Universal Studios issues you entry pass if you can produce an email. So IMHO, if someone is **just interested in spending a night in Burbank** and is budget conscious, this is the place to sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>gm_ca595, General Manager at Quality Inn, responded to this reviewResponded March 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2014</t>
+  </si>
+  <si>
+    <t>To start with, I saw ants in bathroom and even on bed. Now good parts. Bed was good. TV had Armenian channels, good for people who can understand Armenian language. Close to down town and if Universal City. Breakfast was just standard stuff. The Indian guy at reception wasn't courteous. I forgot the name of lady who checked me in. I needed printout of my ticket to Universal Studio and the lady said she will print it for me. I was happy and said I will collect it later. Later this Indian guy at reception, must be the grumpy guy who works in graveyard shifts, bluntly refused. In fact he said, "I have just joined, sorry can't help you, we don't have rights and what not". Thankfully Universal Studios issues you entry pass if you can produce an email. So IMHO, if someone is **just interested in spending a night in Burbank** and is budget conscious, this is the place to sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r191155712-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>191155712</t>
+  </si>
+  <si>
+    <t>01/17/2014</t>
+  </si>
+  <si>
+    <t>Good Budget Hotel</t>
+  </si>
+  <si>
+    <t>Average for the price paid, nothing to write home about.  The continental breakfast was just that, bagel, English muffin, coffee, boiled egg, yogurt,  and juice.  Customer service was butter at check-in then it was in the morning, some folks are not morning people and should not take that  shift.  Room was clean, but nothing special, WiFi slow. Booked online since rates where better, I was provided conformation number, however they stated it had not been charged. I later found that it was just a reservation number.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r187576456-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>187576456</t>
+  </si>
+  <si>
+    <t>12/13/2013</t>
+  </si>
+  <si>
+    <t>Traffic and train noise, No TV</t>
+  </si>
+  <si>
+    <t>Don't stay here unless you like to hear the train go by blowing its whistle and the traffic on San Fernando Rd. and Buena Vista.  But what really got my goat was the fact that I had no television.  When I checked in I turned it on but got nothing but snow.  I called the front desk and  they suggested checking the cable connection.  I thought this was a little weird, but did so and found there was no nut on the cable to secure it to the TV input.  I asked for another room but was told only the manager could do that and he would not be in for a half hour.  I decided rather that just col my heels for a half hour, I would just stay without TV.  The next morning as I was leaving I turned the TV outward and pulled the cable up to show it was disconnected, but to my surprise the cable wasn't connected to the wall either.  The cable outlet was bent up so it couldn't be connected.  Therefore, they knew this room had no cable TV but gave it to me anyway.  Their sharp practices have earned my enmity forever.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Don't stay here unless you like to hear the train go by blowing its whistle and the traffic on San Fernando Rd. and Buena Vista.  But what really got my goat was the fact that I had no television.  When I checked in I turned it on but got nothing but snow.  I called the front desk and  they suggested checking the cable connection.  I thought this was a little weird, but did so and found there was no nut on the cable to secure it to the TV input.  I asked for another room but was told only the manager could do that and he would not be in for a half hour.  I decided rather that just col my heels for a half hour, I would just stay without TV.  The next morning as I was leaving I turned the TV outward and pulled the cable up to show it was disconnected, but to my surprise the cable wasn't connected to the wall either.  The cable outlet was bent up so it couldn't be connected.  Therefore, they knew this room had no cable TV but gave it to me anyway.  Their sharp practices have earned my enmity forever.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r181066144-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>181066144</t>
+  </si>
+  <si>
+    <t>10/14/2013</t>
+  </si>
+  <si>
+    <t>So so hotel</t>
+  </si>
+  <si>
+    <t>The hotel is old, basic nothing that impressive. Small refrigerator had some rust but the beds were good! The noise carried really bad from ot her rooms, the floor above and the hallways. But for a night to avoid falling asleep on the road . . . Not bad.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r180872348-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>180872348</t>
+  </si>
+  <si>
+    <t>10/13/2013</t>
+  </si>
+  <si>
+    <t>MANAGER AWFUL...LADIES GREAT...</t>
+  </si>
+  <si>
+    <t>The two front desk young ladies were more than helpful from the booking to the addlitional night's stay.  The manager/owner ( I assumed that because of the way he treated everyone around him and how they seemed to jump for him) not so much so.  We had originally planned for two nights.  The first night there, wifi issues.  He was no help.  The TV in my brothers room would not work, he offered no solution.  AND when it was back and working the next morning and he called to let them know, this guy doesn't even answer with his name, hotel name, any greeting just yes, or hello.  He was rude and unfriendly from checkin.  My brother told him the TV was working, he simply said "okay" and hung up.  that was it.  It took 35 rings to get him to answer and when he did, he was rude.  When we decided to stay another night, we stopped at the desk the night before, paid for everything and kept same rooms.  We were not told we would need new key.  I went to meet my sister, was locked out because old key did not work and you would think rolling a chair over to make a key was asking a lot.  My brother went to go get ice, was locked out because his old key also would not work.  He went to the front desk...no smile, no greeting, he was...The two front desk young ladies were more than helpful from the booking to the addlitional night's stay.  The manager/owner ( I assumed that because of the way he treated everyone around him and how they seemed to jump for him) not so much so.  We had originally planned for two nights.  The first night there, wifi issues.  He was no help.  The TV in my brothers room would not work, he offered no solution.  AND when it was back and working the next morning and he called to let them know, this guy doesn't even answer with his name, hotel name, any greeting just yes, or hello.  He was rude and unfriendly from checkin.  My brother told him the TV was working, he simply said "okay" and hung up.  that was it.  It took 35 rings to get him to answer and when he did, he was rude.  When we decided to stay another night, we stopped at the desk the night before, paid for everything and kept same rooms.  We were not told we would need new key.  I went to meet my sister, was locked out because old key did not work and you would think rolling a chair over to make a key was asking a lot.  My brother went to go get ice, was locked out because his old key also would not work.  He went to the front desk...no smile, no greeting, he was on his puter and my brother had to asked for assitance...he asked for a key and he huffingly made it.   My brother then asked for new internet access because our slip said valid only two days...he signed rolled his chair over and pulled out the paper.  no comment to my brother, just dropped it on the desk.  When he asked for coffee (mind you we did not use housekeeping at all either of us) he could not be bothered to get it....he hollered to a girl cleaning the breakfast room to come and get coffee.  IT WAS IN THE CABINET BY HIM....He gives you hotel a bad name.  HONESTLY...if we had not had such a nice room in Barstow with one of the nicest checkins EVER (Anna), I would rethink Quality and go for Comfort Inn.  He was a horrible person to deal with.  We were not staying for free and I HATE GIVING MY MONEY to someone so rude.  If you do not like dealing with us, then find something else to do.  We were very low-key, did not use housekeeping and simply BOTHERED HIM when it was because of their issues or for coffee.MoreShow less</t>
+  </si>
+  <si>
+    <t>The two front desk young ladies were more than helpful from the booking to the addlitional night's stay.  The manager/owner ( I assumed that because of the way he treated everyone around him and how they seemed to jump for him) not so much so.  We had originally planned for two nights.  The first night there, wifi issues.  He was no help.  The TV in my brothers room would not work, he offered no solution.  AND when it was back and working the next morning and he called to let them know, this guy doesn't even answer with his name, hotel name, any greeting just yes, or hello.  He was rude and unfriendly from checkin.  My brother told him the TV was working, he simply said "okay" and hung up.  that was it.  It took 35 rings to get him to answer and when he did, he was rude.  When we decided to stay another night, we stopped at the desk the night before, paid for everything and kept same rooms.  We were not told we would need new key.  I went to meet my sister, was locked out because old key did not work and you would think rolling a chair over to make a key was asking a lot.  My brother went to go get ice, was locked out because his old key also would not work.  He went to the front desk...no smile, no greeting, he was...The two front desk young ladies were more than helpful from the booking to the addlitional night's stay.  The manager/owner ( I assumed that because of the way he treated everyone around him and how they seemed to jump for him) not so much so.  We had originally planned for two nights.  The first night there, wifi issues.  He was no help.  The TV in my brothers room would not work, he offered no solution.  AND when it was back and working the next morning and he called to let them know, this guy doesn't even answer with his name, hotel name, any greeting just yes, or hello.  He was rude and unfriendly from checkin.  My brother told him the TV was working, he simply said "okay" and hung up.  that was it.  It took 35 rings to get him to answer and when he did, he was rude.  When we decided to stay another night, we stopped at the desk the night before, paid for everything and kept same rooms.  We were not told we would need new key.  I went to meet my sister, was locked out because old key did not work and you would think rolling a chair over to make a key was asking a lot.  My brother went to go get ice, was locked out because his old key also would not work.  He went to the front desk...no smile, no greeting, he was on his puter and my brother had to asked for assitance...he asked for a key and he huffingly made it.   My brother then asked for new internet access because our slip said valid only two days...he signed rolled his chair over and pulled out the paper.  no comment to my brother, just dropped it on the desk.  When he asked for coffee (mind you we did not use housekeeping at all either of us) he could not be bothered to get it....he hollered to a girl cleaning the breakfast room to come and get coffee.  IT WAS IN THE CABINET BY HIM....He gives you hotel a bad name.  HONESTLY...if we had not had such a nice room in Barstow with one of the nicest checkins EVER (Anna), I would rethink Quality and go for Comfort Inn.  He was a horrible person to deal with.  We were not staying for free and I HATE GIVING MY MONEY to someone so rude.  If you do not like dealing with us, then find something else to do.  We were very low-key, did not use housekeeping and simply BOTHERED HIM when it was because of their issues or for coffee.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r168661895-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>168661895</t>
+  </si>
+  <si>
+    <t>07/22/2013</t>
+  </si>
+  <si>
+    <t>Unless your totally broke - find another hotel!</t>
+  </si>
+  <si>
+    <t>Stayed 2 nights - longest 2 nights ever - Like being in the ghetto!  Rooms musty and stink!  Police in parking lot, loud gangsta looking crowd drinking in parking lot! Service - well - there isnt ANY!  Asked for more towels... After several hours was brought one (1)!  Card keys didnt work twice!  Convenient to Universal - but do yourself a favor, pay a few more dollars and stay somewhere safer and nicer!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r168120753-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>168120753</t>
+  </si>
+  <si>
+    <t>07/18/2013</t>
+  </si>
+  <si>
+    <t>Great for a quick night's stay!</t>
+  </si>
+  <si>
+    <t>Stayed here on a road trip - went to some Dodger Games and this was a great location for a quick drive to and from.  Arrived an hour after the check-in time and room was not ready which didn't sit well with the wife since we were on a time schedule and tired.  Sat in lobby for 20 minutes with our luggage (and cranky wife and child) while room was cleaned ... not cool but we lived.  Freeway noise was not an issue as some others have stated - although the freight train at 1:14AM blowing it's freight train horn less than 50 yards from our door was a bit of a "thing".  Craziness - sent us all through the roof as scared us to death!  Took awhile to get the blood pressure regulated and back to sleep ...but the room/bathroom was clean and the bed was very comfortable - slept well enough and was rested for fun the next day!  Not 100% sure would stay here again due to the train (seriously - it was L-O-U-D!) but it was only once and the only other train was the MetroLink which is no big deal...would depend on the price if we decide to stay here again next time we road trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Stayed here on a road trip - went to some Dodger Games and this was a great location for a quick drive to and from.  Arrived an hour after the check-in time and room was not ready which didn't sit well with the wife since we were on a time schedule and tired.  Sat in lobby for 20 minutes with our luggage (and cranky wife and child) while room was cleaned ... not cool but we lived.  Freeway noise was not an issue as some others have stated - although the freight train at 1:14AM blowing it's freight train horn less than 50 yards from our door was a bit of a "thing".  Craziness - sent us all through the roof as scared us to death!  Took awhile to get the blood pressure regulated and back to sleep ...but the room/bathroom was clean and the bed was very comfortable - slept well enough and was rested for fun the next day!  Not 100% sure would stay here again due to the train (seriously - it was L-O-U-D!) but it was only once and the only other train was the MetroLink which is no big deal...would depend on the price if we decide to stay here again next time we road trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r161019709-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>161019709</t>
+  </si>
+  <si>
+    <t>05/17/2013</t>
+  </si>
+  <si>
+    <t>Me &amp; my girlfriends stay....</t>
+  </si>
+  <si>
+    <t>Our stay here this month was very relaxing and comfortable....we also sat &amp; had a great breakfast ( variety of items to choose from ) also had an opportunity of talking to the manager , who was very nice &amp; knowledgeable with the surrounding areas. See you soon ! two thumbs up !</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r151139531-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>151139531</t>
+  </si>
+  <si>
+    <t>01/31/2013</t>
+  </si>
+  <si>
+    <t>Great location great service
+ “Great Location, Great Service”</t>
+  </si>
+  <si>
+    <t>The service at Quality inn Burbank can't be beat, the location is amazing. If you've just flown in from a long flight this is the place to stay, the staff will really look after you! We were upgraded to a one bedroom suite while we were there, so spacious, so much room. We checked in at 2 a.m., was very quite and didn’t bother us any traffics noise. After we stayed this quality inn we will stay again and again for any quality inn.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r151034638-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>151034638</t>
+  </si>
+  <si>
+    <t>01/30/2013</t>
+  </si>
+  <si>
+    <t>near burbank</t>
+  </si>
+  <si>
+    <t>Stayed near Burbank, because we wanted to go to Warner Brothers Studio. It was a good area to begin with, and we enjoyed our stay. It was near the airport. It was rather cool and we didn't use the pool.  We wanted to enjoy the area and saw a great downtown, which has a very nice atmosphere. Car parking free. Jack in the box next door.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r148239942-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>148239942</t>
+  </si>
+  <si>
+    <t>12/28/2012</t>
+  </si>
+  <si>
+    <t>Quite Dreary</t>
+  </si>
+  <si>
+    <t>This is a relatively unattractive motel next to the freeway, with both freeway and MetroRail noise throughout the night.  I only stayed one night, so it was a minimal bother, but I don't suggest staying here more than one night and definitely not for families and those accustomed to more elevated standards of accommodation.  My room, though, did have a small fridge and microwave.  Rooms are interior and there is covered parking in the rear. A small breakfast is available in the AM, but seating is limited.  I ate while sitting on the curb outside the entrance. And not much for restaurant eating nearby except for the fast food adjacent.  There's a small pool for the occasional extraordinarily hot summer day. On another downside, my TV got a relatively small number of channels. When I Iooked at the motel directory book on my desk for things to do and nearby addresses, many of the pages were torn out.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>This is a relatively unattractive motel next to the freeway, with both freeway and MetroRail noise throughout the night.  I only stayed one night, so it was a minimal bother, but I don't suggest staying here more than one night and definitely not for families and those accustomed to more elevated standards of accommodation.  My room, though, did have a small fridge and microwave.  Rooms are interior and there is covered parking in the rear. A small breakfast is available in the AM, but seating is limited.  I ate while sitting on the curb outside the entrance. And not much for restaurant eating nearby except for the fast food adjacent.  There's a small pool for the occasional extraordinarily hot summer day. On another downside, my TV got a relatively small number of channels. When I Iooked at the motel directory book on my desk for things to do and nearby addresses, many of the pages were torn out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r144594565-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>144594565</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>Location and Condition - NG</t>
+  </si>
+  <si>
+    <t>Though this hotel is somewhat close to the airport, it is also close to two extremely busy streets and the rapid rail which feels obliged to blow the horn every time it goes by.  Take ear plugs, though they better be high quality.  The maintenance is poor.  Step into the elevator and the wooden paneling is marred from someone running a key up and down it or something...no bother to refinish it.  The rooms need paint and the air is stale, though it might be better than the car exhaust from the highway and busy roads.   The breakfast area was small but the food was at least typical of hotels in the price range.   At check-in and checkout, despite a reservation made on line, I had old-school paperwork to fill out by hand as if I had just walked in off the street.  I thought computers pretty much did away with that.  The parking is inadequate and because of its location, it is a real dice toss just to pull out into the insane traffic.   Won't be going there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Though this hotel is somewhat close to the airport, it is also close to two extremely busy streets and the rapid rail which feels obliged to blow the horn every time it goes by.  Take ear plugs, though they better be high quality.  The maintenance is poor.  Step into the elevator and the wooden paneling is marred from someone running a key up and down it or something...no bother to refinish it.  The rooms need paint and the air is stale, though it might be better than the car exhaust from the highway and busy roads.   The breakfast area was small but the food was at least typical of hotels in the price range.   At check-in and checkout, despite a reservation made on line, I had old-school paperwork to fill out by hand as if I had just walked in off the street.  I thought computers pretty much did away with that.  The parking is inadequate and because of its location, it is a real dice toss just to pull out into the insane traffic.   Won't be going there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r144241465-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>144241465</t>
+  </si>
+  <si>
+    <t>11/01/2012</t>
+  </si>
+  <si>
+    <t>Ugh. No way.</t>
+  </si>
+  <si>
+    <t>We were looking for an inexpensive place to stay overnight before flying out of Burbank to SeaTac. We got relatively inexpensive, but we got run down and neglected. Our travel agent recommended this place, saying it was clean, and "within walking distance from the airport." NO WAY. I'm only assuming the agent was never there. It was not clean, it was not within walking distance. First off, Quality Inn did not have our reservation and we had to stand in the shabby waiting area for about 15 minutes waiting for people to call back and forth to confirm. The office clerk was not happy to be working there, and even said so. The carpeting in the room was dismal, the bathroom sink ONLY had hot water - very very hot. The furnishings made us laugh. 3 chairs, all mismatched that looked exactly like they went to Salvation Army and got what they could find.The dressers and desk drawers were all missing their drawer pulls, and they also looked like Salvation Army finds. We couldn't wait around for the complimentary breakfast because of our early flight, but judging from the rest of the room and hotel, we didn't miss anything.Oh, and if that wasn't enough, Amtrak ran right by the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were looking for an inexpensive place to stay overnight before flying out of Burbank to SeaTac. We got relatively inexpensive, but we got run down and neglected. Our travel agent recommended this place, saying it was clean, and "within walking distance from the airport." NO WAY. I'm only assuming the agent was never there. It was not clean, it was not within walking distance. First off, Quality Inn did not have our reservation and we had to stand in the shabby waiting area for about 15 minutes waiting for people to call back and forth to confirm. The office clerk was not happy to be working there, and even said so. The carpeting in the room was dismal, the bathroom sink ONLY had hot water - very very hot. The furnishings made us laugh. 3 chairs, all mismatched that looked exactly like they went to Salvation Army and got what they could find.The dressers and desk drawers were all missing their drawer pulls, and they also looked like Salvation Army finds. We couldn't wait around for the complimentary breakfast because of our early flight, but judging from the rest of the room and hotel, we didn't miss anything.Oh, and if that wasn't enough, Amtrak ran right by the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r142569310-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>142569310</t>
+  </si>
+  <si>
+    <t>10/11/2012</t>
+  </si>
+  <si>
+    <t>Extremely rude and filthy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checked in because convent from work meeting would take place. The beginning I checked in I knew it was a mistake. The hotel manager is extremely rude and has an attitude issue. He feels as if he can talk to you anyway he wants. Room has bad odor, tv doesn't work, wall bubbles and peeling. Next morning at breakfast found hair in the food. Disgusting and so not worth the 110 a night. Save yourself the stress and money . Horrible horrible experience </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r137014081-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>137014081</t>
+  </si>
+  <si>
+    <t>08/12/2012</t>
+  </si>
+  <si>
+    <t>Bed Bugs Attack</t>
+  </si>
+  <si>
+    <t>The title says it all. The pile of old mattresses in the carpark marked as "hazardous" should have been a warning to me, but I wasn't alert enough.I guess I'll be one of the first to die in those horror movies for not seeing the warning signs. The place was cheap so I was expecting a pretty basic motel, but nothing prepared me for the bed bugs that ate me alive. I usually can't be bothered complaining on these sites, but this was a bad enough experience for me to warn people to stay away. I have since carried these lovely blood sucking creatures back to my country where they are totally unheard of. We had to fumigate the whole house. Maybe I was just unlucky and it was an isolated incident so I'm not saying the whole place is infested, but just be warned that there were bed bugs and I was bitten. a lot. For the record I slept really well, just woke up in the morning covered in bites. Thought it was fleas until I got home and found a bug in my luggage.As a parting note, the hotel is very excellently located, a stones throw from a major road, major motorway and rail line. The air port is down the road and flies conveniently overhead...MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>The title says it all. The pile of old mattresses in the carpark marked as "hazardous" should have been a warning to me, but I wasn't alert enough.I guess I'll be one of the first to die in those horror movies for not seeing the warning signs. The place was cheap so I was expecting a pretty basic motel, but nothing prepared me for the bed bugs that ate me alive. I usually can't be bothered complaining on these sites, but this was a bad enough experience for me to warn people to stay away. I have since carried these lovely blood sucking creatures back to my country where they are totally unheard of. We had to fumigate the whole house. Maybe I was just unlucky and it was an isolated incident so I'm not saying the whole place is infested, but just be warned that there were bed bugs and I was bitten. a lot. For the record I slept really well, just woke up in the morning covered in bites. Thought it was fleas until I got home and found a bug in my luggage.As a parting note, the hotel is very excellently located, a stones throw from a major road, major motorway and rail line. The air port is down the road and flies conveniently overhead...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r136837511-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>136837511</t>
+  </si>
+  <si>
+    <t>08/10/2012</t>
+  </si>
+  <si>
+    <t>THE ROOMS ARE DIRTY AND COVERED WITH MOLD!!!</t>
+  </si>
+  <si>
+    <t>DO NOT STAY AT THIS PLACE!!! I booked a room using my rewards points. I was lead to believe this establishment was 3 out of 5 stars (via the rewards site AND the Quality Inn's website). We were in town for an art showing and basically just need a room for the night. We arrived with a friend around 6p. My husband and I stayed in Room 331, our friend was in Room 206. Once my husband and I checked into our room I was immediately discouraged, the floors were covered in black stains. I was afraid to take my shoes off!! The wall outlets did not have covers and the bed spread was covered with holes and stains. The wall paper was bubbled and separating from the wall. We didn't even spend 10 minutes in the room when we first checked in, literally dropped our bags and left for the art show. We returned with our friend around 2am, there was a different person on staff who was rude just like the clerk who checked us in. I was hesitant to sleep under the covers because the condition of the room was so poor but since I used my rewards points and didn't have the money to go elsewhere, we sucked it up and slept on the bed. I had a hard time sleeping due to the mold smell. In the morning we found out that our friend's room...DO NOT STAY AT THIS PLACE!!! I booked a room using my rewards points. I was lead to believe this establishment was 3 out of 5 stars (via the rewards site AND the Quality Inn's website). We were in town for an art showing and basically just need a room for the night. We arrived with a friend around 6p. My husband and I stayed in Room 331, our friend was in Room 206. Once my husband and I checked into our room I was immediately discouraged, the floors were covered in black stains. I was afraid to take my shoes off!! The wall outlets did not have covers and the bed spread was covered with holes and stains. The wall paper was bubbled and separating from the wall. We didn't even spend 10 minutes in the room when we first checked in, literally dropped our bags and left for the art show. We returned with our friend around 2am, there was a different person on staff who was rude just like the clerk who checked us in. I was hesitant to sleep under the covers because the condition of the room was so poor but since I used my rewards points and didn't have the money to go elsewhere, we sucked it up and slept on the bed. I had a hard time sleeping due to the mold smell. In the morning we found out that our friend's room was covered in mold, when he asked to move to another room the front desk clerk became irate and called the cops. Apparently the cops are called out to this hotel A LOT and they will be of NO HELP since it's "private property and the employees can do whatever they want". This place is a hazard!! I've called the Los Angeles Public Health Dept. and have already filed a formal complaint with the Better Business Bureau! Save yourself the stress and money loss!!! Oh and they are right next to the rail road and YES the trains do come through at 2-3 in the morning blaring their horns!MoreShow less</t>
+  </si>
+  <si>
+    <t>DO NOT STAY AT THIS PLACE!!! I booked a room using my rewards points. I was lead to believe this establishment was 3 out of 5 stars (via the rewards site AND the Quality Inn's website). We were in town for an art showing and basically just need a room for the night. We arrived with a friend around 6p. My husband and I stayed in Room 331, our friend was in Room 206. Once my husband and I checked into our room I was immediately discouraged, the floors were covered in black stains. I was afraid to take my shoes off!! The wall outlets did not have covers and the bed spread was covered with holes and stains. The wall paper was bubbled and separating from the wall. We didn't even spend 10 minutes in the room when we first checked in, literally dropped our bags and left for the art show. We returned with our friend around 2am, there was a different person on staff who was rude just like the clerk who checked us in. I was hesitant to sleep under the covers because the condition of the room was so poor but since I used my rewards points and didn't have the money to go elsewhere, we sucked it up and slept on the bed. I had a hard time sleeping due to the mold smell. In the morning we found out that our friend's room...DO NOT STAY AT THIS PLACE!!! I booked a room using my rewards points. I was lead to believe this establishment was 3 out of 5 stars (via the rewards site AND the Quality Inn's website). We were in town for an art showing and basically just need a room for the night. We arrived with a friend around 6p. My husband and I stayed in Room 331, our friend was in Room 206. Once my husband and I checked into our room I was immediately discouraged, the floors were covered in black stains. I was afraid to take my shoes off!! The wall outlets did not have covers and the bed spread was covered with holes and stains. The wall paper was bubbled and separating from the wall. We didn't even spend 10 minutes in the room when we first checked in, literally dropped our bags and left for the art show. We returned with our friend around 2am, there was a different person on staff who was rude just like the clerk who checked us in. I was hesitant to sleep under the covers because the condition of the room was so poor but since I used my rewards points and didn't have the money to go elsewhere, we sucked it up and slept on the bed. I had a hard time sleeping due to the mold smell. In the morning we found out that our friend's room was covered in mold, when he asked to move to another room the front desk clerk became irate and called the cops. Apparently the cops are called out to this hotel A LOT and they will be of NO HELP since it's "private property and the employees can do whatever they want". This place is a hazard!! I've called the Los Angeles Public Health Dept. and have already filed a formal complaint with the Better Business Bureau! Save yourself the stress and money loss!!! Oh and they are right next to the rail road and YES the trains do come through at 2-3 in the morning blaring their horns!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r136582243-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>136582243</t>
+  </si>
+  <si>
+    <t>08/08/2012</t>
+  </si>
+  <si>
+    <t>Really?!</t>
+  </si>
+  <si>
+    <t>Read the reviews and really did not want to stay here but there was a family emergency and there were 3 couples that needed rooms and someone in the group was cheap.  I checked the room to see if the sheets and bathrooms were clean and they were.  However, the room was really in need of maintenance.  Check in was quick and friendly but that is the only thing this place has going for it.  Good thing is, we only had to stay in the room 3 hrs.  Unless this is your only option, vs sleeping in your car, you need to go somewhere else.  For the money, this was a bust!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Read the reviews and really did not want to stay here but there was a family emergency and there were 3 couples that needed rooms and someone in the group was cheap.  I checked the room to see if the sheets and bathrooms were clean and they were.  However, the room was really in need of maintenance.  Check in was quick and friendly but that is the only thing this place has going for it.  Good thing is, we only had to stay in the room 3 hrs.  Unless this is your only option, vs sleeping in your car, you need to go somewhere else.  For the money, this was a bust!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r134325116-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>134325116</t>
+  </si>
+  <si>
+    <t>07/13/2012</t>
+  </si>
+  <si>
+    <t>Great Location, Excellent Service, Spacious Rooms, Good Breakfast</t>
+  </si>
+  <si>
+    <t>I have stayed here several times and each time the desk staff was very helpful, rooms were clean, everything was working as supposed to, breakfast was excellent and in the same lot as the hotel is a jack in the box with 24hr drive thru. Its just off 5fwy so easy to get everywhere. I would definately stay here again and highly recommend it for the price!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r134246510-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>134246510</t>
+  </si>
+  <si>
+    <t>07/12/2012</t>
+  </si>
+  <si>
+    <t>Room was very spacious and complimentary breakfast awesome :)</t>
+  </si>
+  <si>
+    <t>We stayed there for the 4th of July holiday and if you are looking for convenience, this is the place you want to be. Their room was spacious and we love their complimentary breakfast was excellent. Right next door is a fastfood and right across is a gas station. It's only few minutes away from Universal Studio Hollywood and the Hollywood Sign. My family and I had a great time here. All the workers, especially the manager, were friendly. Thank you for your awesome service :)</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r134118529-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>134118529</t>
+  </si>
+  <si>
+    <t>07/11/2012</t>
+  </si>
+  <si>
+    <t>" Best place to stay in Burbank " nice, clean &amp; best service ever</t>
+  </si>
+  <si>
+    <t>I stayed two weeks there. I would definitely stay here again. I read so many great reviews here on trip advisor and decided to book this hotel. I'm sure glad I did! All of the fabulous reviews are true! Excellent beds!! Lovely atmosphere, comfortable and very clean rooms, attention to details, good quality complimentary toiletries, coffee, tea and microwave, fridge in room. The breakfast is GREAT! The evening reception guy is very good (Johnny). Staff is warm, friendly and helpful. Parking, WiFi &amp; shuttle service are free.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r130481502-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>130481502</t>
+  </si>
+  <si>
+    <t>05/23/2012</t>
+  </si>
+  <si>
+    <t>Excellent cutomer Service!!</t>
+  </si>
+  <si>
+    <t>I took my families to visit to Universal Studio in May 2012. We stayed at Quality Inn for two days. We enjoyed staying there very much. The front desk person was friendly and Flexible.  The room was nice and clean. I would stay in the hotel again when I visit LA.</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r130410349-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>130410349</t>
+  </si>
+  <si>
+    <t>05/22/2012</t>
+  </si>
+  <si>
+    <t>One night ,thank goodness</t>
+  </si>
+  <si>
+    <t>front desk personel was not helpful didn't know her job. The room was dingy , noisy and other guests were knocking on our door till I put the do not disturbe sign out it was cheap but it showed . The T.V. channels were few and far between.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r130016629-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>130016629</t>
+  </si>
+  <si>
+    <t>05/15/2012</t>
+  </si>
+  <si>
+    <t>“Very accommodating staff “</t>
+  </si>
+  <si>
+    <t>We only stayed one night at the Quality inn Burbank Airport but have no complaints. Excellent location, free shuttle, free upgrade to suites from manager, very accommodating &amp; friendlily staff, rooms were clean, quiet, well equipped and the bed was wonderfully comfortable after a long flight. We definitely didn't hear any airport noise. We didn't get to try all the facilities but the check-in/check-out process went smoothly and breakfast was excellent, its very cheap hotel in Burbank compared to others we tried. I would definitely stay here again if flying in or out of Burbank</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r126237682-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>126237682</t>
+  </si>
+  <si>
+    <t>03/17/2012</t>
+  </si>
+  <si>
+    <t>Planes trains &amp; freeway did not matter Had a Good Stay</t>
+  </si>
+  <si>
+    <t>I had to stay in the SFV after one class, before beginning another:this was a 10 hour stay. The king bed was sumptuous, shower excellent. Towels a little thin. Stayed in this inn in Sept. and noise not a factor then or now. Despite being next to I-5, Burbank Airport and the Train Station-an advantage!- noise was minimal. After around 10:00 pm no planes are taking off, and there is one early am train around 6:00. There are a few loud trucks- no jake brakes or beeping. Thanks, neighbors!  Another benefit is the kind staff. Breakfast is at 06:30 but a hungry traveler could beg some coffee at 06:15 am. Coffee in the room tasted of plastic.  A further benefit is some fast food next door in case of need. A very nice hotel for the price and convenience.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>I had to stay in the SFV after one class, before beginning another:this was a 10 hour stay. The king bed was sumptuous, shower excellent. Towels a little thin. Stayed in this inn in Sept. and noise not a factor then or now. Despite being next to I-5, Burbank Airport and the Train Station-an advantage!- noise was minimal. After around 10:00 pm no planes are taking off, and there is one early am train around 6:00. There are a few loud trucks- no jake brakes or beeping. Thanks, neighbors!  Another benefit is the kind staff. Breakfast is at 06:30 but a hungry traveler could beg some coffee at 06:15 am. Coffee in the room tasted of plastic.  A further benefit is some fast food next door in case of need. A very nice hotel for the price and convenience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r125345487-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>125345487</t>
+  </si>
+  <si>
+    <t>02/28/2012</t>
+  </si>
+  <si>
+    <t>comfortable place</t>
+  </si>
+  <si>
+    <t>This Quality Inn is close to where I needed to be.  It is very comfortable.  It is close to restaurants fast food and sit down. It is close to The Burbank airport. Shopping not to far away. There are places that you can visit and fun things to do.  The breakfast was very good. It is much more than a continental breakfast. We had a very nice stay</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r125236375-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>125236375</t>
+  </si>
+  <si>
+    <t>02/26/2012</t>
+  </si>
+  <si>
+    <t>Great Price &amp; Relaxing Stay</t>
+  </si>
+  <si>
+    <t>I've stayed here many time's in the past , great location ! excellent continental breakfast . Staff are very friendly &amp; willing to assist in anyway possible. Comfortable Rooms.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r124024598-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>124024598</t>
+  </si>
+  <si>
+    <t>02/02/2012</t>
+  </si>
+  <si>
+    <t>Clean, friendly, would stay again!</t>
+  </si>
+  <si>
+    <t>The rooms are a little small, but very clean. Service was friendly and very helpful. This hotel was the best price for the area. Right down the street from the airport and great continental breakfast.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r123946659-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>123946659</t>
+  </si>
+  <si>
+    <t>01/31/2012</t>
+  </si>
+  <si>
+    <t>Great price, Clean and Comfortable, Fresh/Hot Breakfast!</t>
+  </si>
+  <si>
+    <t>We were surprised to find a good hotel at such a good price at this location in Burbank.  The breakfast was impressive as well; included sausage patties and eggs, cereals, juices, various bread products, awesome coffee and various other items. Everything was fresh and high quality.  The rooms were clean and comfortable, the staff helpful, and covered parking available. The pool and spa looked clean and inviting but we didn't get a chance to check them out. The location is right next to the freeway, and we did hear a vehicle or two early in the evening but had no problem sleeping thru the night.   We will definitely stay there again next time we visit LA!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>We were surprised to find a good hotel at such a good price at this location in Burbank.  The breakfast was impressive as well; included sausage patties and eggs, cereals, juices, various bread products, awesome coffee and various other items. Everything was fresh and high quality.  The rooms were clean and comfortable, the staff helpful, and covered parking available. The pool and spa looked clean and inviting but we didn't get a chance to check them out. The location is right next to the freeway, and we did hear a vehicle or two early in the evening but had no problem sleeping thru the night.   We will definitely stay there again next time we visit LA!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r123805117-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>123805117</t>
+  </si>
+  <si>
+    <t>01/29/2012</t>
+  </si>
+  <si>
+    <t>Excellent Location, Excellent Service, Great Price!!</t>
+  </si>
+  <si>
+    <t>This was my fourth stay with them and each visit was a smooth stay with no complaints. The rooms were clean, wifi worked in room at good speed throughout, breakfast spread was good with hot items, reception staff were excellent with directions room service was prompt when I requested it and the rate was excellent thru choicehotels.com. I would have given 5 star for this property except for the fact that breakfast area was small and tended to get crowded during busy morning hours. Overall very good value for money. Will stay here when I am next in town!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r123255613-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>123255613</t>
+  </si>
+  <si>
+    <t>01/18/2012</t>
+  </si>
+  <si>
+    <t>Just what we needed</t>
+  </si>
+  <si>
+    <t>My husband and I only needed a place to sleep for one night before we headed home.  The room was nothing fancy, but comfortable and quaint.  The staff was very polite--calling after a few minutes of being in the room to make sure our room was acceptable.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r122775007-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>122775007</t>
+  </si>
+  <si>
+    <t>01/08/2012</t>
+  </si>
+  <si>
+    <t>"Best service ever"</t>
+  </si>
+  <si>
+    <t>I have been staying here twice a year for the last 5 years for visit my family. It has been such a good experience. The rooms are beautifully. Hotel staffs are rock. I always get manager special discount from Mr. Patel. To qualify this discount I don’t get choice points since this year. Manager said he couldn't go against the choice policy. He can purchase points from his Owen expense and offered me free points. I said I don’t mind for choice points because I review rates in Burbank hotel. This is the only hotel I found cheap. I like this place because I feel like I am at home. Their staff and manager always threat me, as I am there family member. This place is little noises from outside but I always get quiet room. I will stay with them continue…MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>I have been staying here twice a year for the last 5 years for visit my family. It has been such a good experience. The rooms are beautifully. Hotel staffs are rock. I always get manager special discount from Mr. Patel. To qualify this discount I don’t get choice points since this year. Manager said he couldn't go against the choice policy. He can purchase points from his Owen expense and offered me free points. I said I don’t mind for choice points because I review rates in Burbank hotel. This is the only hotel I found cheap. I like this place because I feel like I am at home. Their staff and manager always threat me, as I am there family member. This place is little noises from outside but I always get quiet room. I will stay with them continue…More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r122695774-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>122695774</t>
+  </si>
+  <si>
+    <t>01/06/2012</t>
+  </si>
+  <si>
+    <t>Simple and Reasonable</t>
+  </si>
+  <si>
+    <t>We booked this hotel when we traveled to California for the Rose Bowl. Somehow there was confusion when I booked about the number of people but the staff was helpful in putting us in a room that would fit us all, without breaking our budget. The room was simple and clean. It was a little noisy but was not unbearable. The breakfast in the morning had a good variety. You get what you pay for and over all we had a fine experience.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r120309808-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>120309808</t>
+  </si>
+  <si>
+    <t>11/07/2011</t>
+  </si>
+  <si>
+    <t>RUDE RUDE STAFF - EVEN THE MANAGER!</t>
+  </si>
+  <si>
+    <t>Every person encountered was RUDE!  The front desk clerk was BEYOND RUDE!  When I called the manager to complain - even he was RUDE!  Hotel is very scary &amp; smells!  WORST HOTEL I'VE EVER STAYED IN!</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r118680227-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>118680227</t>
+  </si>
+  <si>
+    <t>09/27/2011</t>
+  </si>
+  <si>
+    <t>NO WAY</t>
+  </si>
+  <si>
+    <t>We got a one bedroom suite the living roomarea was a complete joke smaller then a trailer, bedroom ok the lights didn't work, it smelled. We didn't stay.  The staff was rude they didn't want to refund our money. Told them we couldn't stay due to the smell was causing me asthma problems.  When I lived in Burbank this hotel was called something else and was a hotel for drugs, every other weekend the police was there arresting people. I think its the same with a different name. DON'T STAY,  NOT SAFE.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r115338201-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>115338201</t>
+  </si>
+  <si>
+    <t>07/13/2011</t>
+  </si>
+  <si>
+    <t>Emergency Landing!</t>
+  </si>
+  <si>
+    <t>I have nothing bad to say about this hotel.  The fact of the matter is that we  needed a place to stay for one night because we were in the process of moving.  The hotel was near our place and at the right price.  The restroom was clean and so were the sheets.  The breakfast was what you would expect, cereal, waffles and fruit.  Nothing fancy, but no bad experiences here.  I would stay there again if I had to.</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r76643605-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>76643605</t>
+  </si>
+  <si>
+    <t>08/24/2010</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>Do not stay here at this hotelFor your own hard working money don't believe the video it's false advertisement. Tv is blurry, beds are hard, spa is cold, lights are out in the room, the ac takes hours to get cool, staff is rude and won't help. Be Aware once More please dnt stay here!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r71954380-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>71954380</t>
+  </si>
+  <si>
+    <t>07/22/2010</t>
+  </si>
+  <si>
+    <t>No Quality at this Quality Inn</t>
+  </si>
+  <si>
+    <t>Checked in after dark and the hallway lights were burnt out (or not working). Got in our room and there was an ant highway up one wall and out the window. There were no other rooms but the desk clerk offered to spray - I declined because the room smelled dank and musty as it was, I didn't want Raid smell on top of it. Air conditioner barely worked and only added to the musty smell. I've stayed at several Quality Inns but I would not recommend this particular one. They need to invest some money to bring this place up to an acceptable standard.</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r71084995-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>71084995</t>
+  </si>
+  <si>
+    <t>07/15/2010</t>
+  </si>
+  <si>
+    <t>Do Not Stay Here... Unsafe, Rude Staff, way over priced</t>
+  </si>
+  <si>
+    <t>I never write reviews for hotel stays but I had to for this hotel to save the head ache and saftey of others.  I travel all of the time and my stay here  was by far the worst experience I have ever had.  A lot of shady people in the parking lot, I found a used condom in the stair case, very rude staff, the entire hotel smells like smoke, it is loud and out dated.  And for 120.00 a night!  Give me a break you are better off at a homeless shelter.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r23635757-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>23635757</t>
+  </si>
+  <si>
+    <t>01/17/2009</t>
+  </si>
+  <si>
+    <t>Unbelievably poor hotel and poor treatment</t>
+  </si>
+  <si>
+    <t>We put one of our drivers up at the Quality Inn Burbank for one night.  We called in a credit card before he arrived and had it pre-approved.  When he tried to check out in the morning they told him they could not accept it.  He tried to use the emergency credit card we have him carry.  The would not accept that either.I called them with my personal credit card and they told me I had to FAX them a copy.  I asked if I could email a copy and was told NO.  I drove to the office and spent the next hour and a half FAX'ing many copies to them.  They wouldn't accept any of them because they said the copy quality was too poor - however, our driver was allowed to see the FAX's they had accepted, and told me they were definitely worse.  By this time the manager (Johnny) had become abusive, and would no longer take my calls.  Add this to the poor quality of the hotel, and it adds up to a hotel I would never again consider or recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2008</t>
+  </si>
+  <si>
+    <t>We put one of our drivers up at the Quality Inn Burbank for one night.  We called in a credit card before he arrived and had it pre-approved.  When he tried to check out in the morning they told him they could not accept it.  He tried to use the emergency credit card we have him carry.  The would not accept that either.I called them with my personal credit card and they told me I had to FAX them a copy.  I asked if I could email a copy and was told NO.  I drove to the office and spent the next hour and a half FAX'ing many copies to them.  They wouldn't accept any of them because they said the copy quality was too poor - however, our driver was allowed to see the FAX's they had accepted, and told me they were definitely worse.  By this time the manager (Johnny) had become abusive, and would no longer take my calls.  Add this to the poor quality of the hotel, and it adds up to a hotel I would never again consider or recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r6622296-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>6622296</t>
+  </si>
+  <si>
+    <t>01/18/2007</t>
+  </si>
+  <si>
+    <t>What a Dump!!</t>
+  </si>
+  <si>
+    <t>We stayed here in April 2006 cause we had tickets to the Ellen Degeneres show and we wanted to be close by the studio.  It was the worst hotel I've ever stayed in and I'm not that picky.We were put in one room that smelled so badly of smoke that we asked to be moved.  The woman at the front desk gave us keys to 3 other rooms and we checked them all out.  They all smelled horribly of stale smoke and were dirty - but we chose the third one as it seemed the cleanest and it was late - we had driven for hours and just wanted to go to bed.Once we were in the room we realized it was filthy - it was the strangest set up - when you entered the room you were in the washroom - how convenient.  There was a giant hole in the wall between the bedroom and bathroom - it had been stuffed full of towels.  The bathroom was gross and moldy and smelled bad.I can't even tell you how disgusting this place was.  Thinking back on it we should have packed up and left.   I would not recommend this hotel to ANYONE.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2006</t>
+  </si>
+  <si>
+    <t>We stayed here in April 2006 cause we had tickets to the Ellen Degeneres show and we wanted to be close by the studio.  It was the worst hotel I've ever stayed in and I'm not that picky.We were put in one room that smelled so badly of smoke that we asked to be moved.  The woman at the front desk gave us keys to 3 other rooms and we checked them all out.  They all smelled horribly of stale smoke and were dirty - but we chose the third one as it seemed the cleanest and it was late - we had driven for hours and just wanted to go to bed.Once we were in the room we realized it was filthy - it was the strangest set up - when you entered the room you were in the washroom - how convenient.  There was a giant hole in the wall between the bedroom and bathroom - it had been stuffed full of towels.  The bathroom was gross and moldy and smelled bad.I can't even tell you how disgusting this place was.  Thinking back on it we should have packed up and left.   I would not recommend this hotel to ANYONE.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r5471654-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>5471654</t>
+  </si>
+  <si>
+    <t>07/15/2006</t>
+  </si>
+  <si>
+    <t>maybe OK</t>
+  </si>
+  <si>
+    <t>Room was typical for the low end Quality Inns that we have stayed in; with adequate housekeeping.Pros-- about one mile from Burbank Airport-- no airport noise-- airport shuttle starting at 7:00 a.m.-- conveniently located... if you have a car...shops and restaurants within 5-minute drive-- no problem with front desk which was 24/7 and provided on-time wake up call-- free HBO-- refrigerator and microwaveCons-- freeway noise-- railroad noise-- limited walking area...only close restaurant is Jack-in-the-Box-- fairly small motel type room-- except for HBO and TNT, only a few broadcast channels available I should mention that the a/c was adequate and blocked out much of the traffic and railroad noise.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r2287380-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>2287380</t>
+  </si>
+  <si>
+    <t>07/09/2004</t>
+  </si>
+  <si>
+    <t>Not recommended</t>
+  </si>
+  <si>
+    <t>As Quality Inns go, this one is definitely on the less-attractive side.  Formerly the "Buena Vista Inn", this motel was built with thin walls and has a very crowded, small parking area.  The neighborhood is on the less-than-desirable side though improving.  There is a gas station and a Jack in the Box next door.   Probably one of the worst choices in the Burbank area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r1742022-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>1742022</t>
+  </si>
+  <si>
+    <t>03/23/2004</t>
+  </si>
+  <si>
+    <t>A bad experience</t>
+  </si>
+  <si>
+    <t>I had a bad experience at this hotel...
+I thought I had reserved a non-smoking suite for 4 people, but got a smoking room. This may have been my fault in not reading the fine print on the web when I made the reservation. We arrived late at night, and I was not able to switch to a non-smoking room.
+The sofa bed in the suite bedroom had a sagging, dirty mattress. I had to move the sofa so I could put the mattress on the floor (that was the only way I knew I would be able to sleep on such a soft mattress). I found all kinds of trash under the sofa. The furniture in the bedroom was in very poor shape, with lots of scratches and some big ugly metal brackets holding the legs on a table. We found ants crawling throughout the room. The freeway and train noise made it difficult to sleep. I had breakfast in the lobby. I opened the fridge to get some milk. The fridge had obviously not been cleaned for days. Hallways throughout the hotel were littered with paper.
+I talked to the front desk about all the problems I had, and requested at least a partial refund. I was asked to wait until the manager arrived. When the manager arrived in the morning, I made the same request from him. He said only the owner could authorize it and he...I had a bad experience at this hotel...I thought I had reserved a non-smoking suite for 4 people, but got a smoking room. This may have been my fault in not reading the fine print on the web when I made the reservation. We arrived late at night, and I was not able to switch to a non-smoking room.The sofa bed in the suite bedroom had a sagging, dirty mattress. I had to move the sofa so I could put the mattress on the floor (that was the only way I knew I would be able to sleep on such a soft mattress). I found all kinds of trash under the sofa. The furniture in the bedroom was in very poor shape, with lots of scratches and some big ugly metal brackets holding the legs on a table. We found ants crawling throughout the room. The freeway and train noise made it difficult to sleep. I had breakfast in the lobby. I opened the fridge to get some milk. The fridge had obviously not been cleaned for days. Hallways throughout the hotel were littered with paper.I talked to the front desk about all the problems I had, and requested at least a partial refund. I was asked to wait until the manager arrived. When the manager arrived in the morning, I made the same request from him. He said only the owner could authorize it and he was out of town for several days, so he took my phone number so the owner could call me. It's been almost two weeks, and I still haven't heard from him.I had planned on staying at this hotel for four nights, but checked out after the first night and found a nice room for a good price at the Ramada Inn nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>I had a bad experience at this hotel...
+I thought I had reserved a non-smoking suite for 4 people, but got a smoking room. This may have been my fault in not reading the fine print on the web when I made the reservation. We arrived late at night, and I was not able to switch to a non-smoking room.
+The sofa bed in the suite bedroom had a sagging, dirty mattress. I had to move the sofa so I could put the mattress on the floor (that was the only way I knew I would be able to sleep on such a soft mattress). I found all kinds of trash under the sofa. The furniture in the bedroom was in very poor shape, with lots of scratches and some big ugly metal brackets holding the legs on a table. We found ants crawling throughout the room. The freeway and train noise made it difficult to sleep. I had breakfast in the lobby. I opened the fridge to get some milk. The fridge had obviously not been cleaned for days. Hallways throughout the hotel were littered with paper.
+I talked to the front desk about all the problems I had, and requested at least a partial refund. I was asked to wait until the manager arrived. When the manager arrived in the morning, I made the same request from him. He said only the owner could authorize it and he...I had a bad experience at this hotel...I thought I had reserved a non-smoking suite for 4 people, but got a smoking room. This may have been my fault in not reading the fine print on the web when I made the reservation. We arrived late at night, and I was not able to switch to a non-smoking room.The sofa bed in the suite bedroom had a sagging, dirty mattress. I had to move the sofa so I could put the mattress on the floor (that was the only way I knew I would be able to sleep on such a soft mattress). I found all kinds of trash under the sofa. The furniture in the bedroom was in very poor shape, with lots of scratches and some big ugly metal brackets holding the legs on a table. We found ants crawling throughout the room. The freeway and train noise made it difficult to sleep. I had breakfast in the lobby. I opened the fridge to get some milk. The fridge had obviously not been cleaned for days. Hallways throughout the hotel were littered with paper.I talked to the front desk about all the problems I had, and requested at least a partial refund. I was asked to wait until the manager arrived. When the manager arrived in the morning, I made the same request from him. He said only the owner could authorize it and he was out of town for several days, so he took my phone number so the owner could call me. It's been almost two weeks, and I still haven't heard from him.I had planned on staying at this hotel for four nights, but checked out after the first night and found a nice room for a good price at the Ramada Inn nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r1623258-Quality_Inn-Burbank_California.html</t>
+  </si>
+  <si>
+    <t>1623258</t>
+  </si>
+  <si>
+    <t>01/31/2004</t>
+  </si>
+  <si>
+    <t>Horrid</t>
+  </si>
+  <si>
+    <t>The front desk clerk was a little irritated that he had to interupt his personal phone call to check us in. While in the lobby, I inquired as to where the men's room was located. The clerk directed me up a darkened stairway behind the desk that was piled with boxes of papers. The restroom had a cardboard box next to the toilet filled with used toilet paper. Our room was on the second floor. This stairway was not lit and the carpeting was stained (urine smell?). approx. 3/4 of the lights in the 2nd floor hallway were burnt out, making it difficult to see the room numbers. The room was not well cleaned. The proximity to highway 5 and train tracks made for a restless night.MoreShow less</t>
+  </si>
+  <si>
+    <t>The front desk clerk was a little irritated that he had to interupt his personal phone call to check us in. While in the lobby, I inquired as to where the men's room was located. The clerk directed me up a darkened stairway behind the desk that was piled with boxes of papers. The restroom had a cardboard box next to the toilet filled with used toilet paper. Our room was on the second floor. This stairway was not lit and the carpeting was stained (urine smell?). approx. 3/4 of the lights in the 2nd floor hallway were burnt out, making it difficult to see the room numbers. The room was not well cleaned. The proximity to highway 5 and train tracks made for a restless night.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2250,5477 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>79</v>
+      </c>
+      <c r="O7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>100</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>93</v>
+      </c>
+      <c r="O10" t="s">
+        <v>80</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" t="s">
+        <v>110</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" t="s">
+        <v>121</v>
+      </c>
+      <c r="L13" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>117</v>
+      </c>
+      <c r="O13" t="s">
+        <v>80</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J14" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14" t="s">
+        <v>127</v>
+      </c>
+      <c r="L14" t="s">
+        <v>128</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>129</v>
+      </c>
+      <c r="O14" t="s">
+        <v>87</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" t="s">
+        <v>132</v>
+      </c>
+      <c r="K15" t="s">
+        <v>133</v>
+      </c>
+      <c r="L15" t="s">
+        <v>134</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>135</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>2</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>137</v>
+      </c>
+      <c r="J16" t="s">
+        <v>138</v>
+      </c>
+      <c r="K16" t="s">
+        <v>139</v>
+      </c>
+      <c r="L16" t="s">
+        <v>140</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>141</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>143</v>
+      </c>
+      <c r="J17" t="s">
+        <v>144</v>
+      </c>
+      <c r="K17" t="s">
+        <v>145</v>
+      </c>
+      <c r="L17" t="s">
+        <v>146</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>147</v>
+      </c>
+      <c r="O17" t="s">
+        <v>87</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>148</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>149</v>
+      </c>
+      <c r="J18" t="s">
+        <v>150</v>
+      </c>
+      <c r="K18" t="s">
+        <v>151</v>
+      </c>
+      <c r="L18" t="s">
+        <v>152</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>153</v>
+      </c>
+      <c r="O18" t="s">
+        <v>87</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>155</v>
+      </c>
+      <c r="J19" t="s">
+        <v>156</v>
+      </c>
+      <c r="K19" t="s">
+        <v>157</v>
+      </c>
+      <c r="L19" t="s">
+        <v>158</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>135</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>159</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>160</v>
+      </c>
+      <c r="J20" t="s">
+        <v>161</v>
+      </c>
+      <c r="K20" t="s">
+        <v>162</v>
+      </c>
+      <c r="L20" t="s">
+        <v>163</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>164</v>
+      </c>
+      <c r="O20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>165</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>166</v>
+      </c>
+      <c r="J21" t="s">
+        <v>167</v>
+      </c>
+      <c r="K21" t="s">
+        <v>168</v>
+      </c>
+      <c r="L21" t="s">
+        <v>169</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>170</v>
+      </c>
+      <c r="O21" t="s">
+        <v>80</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>171</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>172</v>
+      </c>
+      <c r="J22" t="s">
+        <v>173</v>
+      </c>
+      <c r="K22" t="s">
+        <v>174</v>
+      </c>
+      <c r="L22" t="s">
+        <v>175</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>170</v>
+      </c>
+      <c r="O22" t="s">
+        <v>100</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>176</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>177</v>
+      </c>
+      <c r="J23" t="s">
+        <v>178</v>
+      </c>
+      <c r="K23" t="s">
+        <v>179</v>
+      </c>
+      <c r="L23" t="s">
+        <v>180</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>141</v>
+      </c>
+      <c r="O23" t="s">
+        <v>100</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>181</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>182</v>
+      </c>
+      <c r="J24" t="s">
+        <v>183</v>
+      </c>
+      <c r="K24" t="s">
+        <v>184</v>
+      </c>
+      <c r="L24" t="s">
+        <v>185</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>186</v>
+      </c>
+      <c r="O24" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>187</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>188</v>
+      </c>
+      <c r="J25" t="s">
+        <v>189</v>
+      </c>
+      <c r="K25" t="s">
+        <v>190</v>
+      </c>
+      <c r="L25" t="s">
+        <v>191</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>192</v>
+      </c>
+      <c r="O25" t="s">
+        <v>80</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>193</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>194</v>
+      </c>
+      <c r="J26" t="s">
+        <v>195</v>
+      </c>
+      <c r="K26" t="s">
+        <v>196</v>
+      </c>
+      <c r="L26" t="s">
+        <v>197</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>198</v>
+      </c>
+      <c r="O26" t="s">
+        <v>80</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>199</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>200</v>
+      </c>
+      <c r="J27" t="s">
+        <v>201</v>
+      </c>
+      <c r="K27" t="s">
+        <v>202</v>
+      </c>
+      <c r="L27" t="s">
+        <v>203</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>204</v>
+      </c>
+      <c r="O27" t="s">
+        <v>80</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>205</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>206</v>
+      </c>
+      <c r="J28" t="s">
+        <v>207</v>
+      </c>
+      <c r="K28" t="s">
+        <v>208</v>
+      </c>
+      <c r="L28" t="s">
+        <v>209</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>204</v>
+      </c>
+      <c r="O28" t="s">
+        <v>87</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>211</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>212</v>
+      </c>
+      <c r="J29" t="s">
+        <v>213</v>
+      </c>
+      <c r="K29" t="s">
+        <v>214</v>
+      </c>
+      <c r="L29" t="s">
+        <v>215</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>216</v>
+      </c>
+      <c r="O29" t="s">
+        <v>80</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>218</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>219</v>
+      </c>
+      <c r="J30" t="s">
+        <v>220</v>
+      </c>
+      <c r="K30" t="s">
+        <v>221</v>
+      </c>
+      <c r="L30" t="s">
+        <v>222</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>216</v>
+      </c>
+      <c r="O30" t="s">
+        <v>60</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>223</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>224</v>
+      </c>
+      <c r="J31" t="s">
+        <v>225</v>
+      </c>
+      <c r="K31" t="s">
+        <v>226</v>
+      </c>
+      <c r="L31" t="s">
+        <v>227</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>228</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>229</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>230</v>
+      </c>
+      <c r="J32" t="s">
+        <v>231</v>
+      </c>
+      <c r="K32" t="s">
+        <v>232</v>
+      </c>
+      <c r="L32" t="s">
+        <v>233</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>228</v>
+      </c>
+      <c r="O32" t="s">
+        <v>100</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>234</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>235</v>
+      </c>
+      <c r="J33" t="s">
+        <v>236</v>
+      </c>
+      <c r="K33" t="s">
+        <v>237</v>
+      </c>
+      <c r="L33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>239</v>
+      </c>
+      <c r="O33" t="s">
+        <v>80</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>241</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>242</v>
+      </c>
+      <c r="J34" t="s">
+        <v>243</v>
+      </c>
+      <c r="K34" t="s">
+        <v>244</v>
+      </c>
+      <c r="L34" t="s">
+        <v>245</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>239</v>
+      </c>
+      <c r="O34" t="s">
+        <v>80</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>1</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>246</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>247</v>
+      </c>
+      <c r="J35" t="s">
+        <v>248</v>
+      </c>
+      <c r="K35" t="s">
+        <v>249</v>
+      </c>
+      <c r="L35" t="s">
+        <v>250</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>252</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>253</v>
+      </c>
+      <c r="J36" t="s">
+        <v>254</v>
+      </c>
+      <c r="K36" t="s">
+        <v>255</v>
+      </c>
+      <c r="L36" t="s">
+        <v>256</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>257</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>2</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>259</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>260</v>
+      </c>
+      <c r="J37" t="s">
+        <v>261</v>
+      </c>
+      <c r="K37" t="s">
+        <v>262</v>
+      </c>
+      <c r="L37" t="s">
+        <v>263</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>198</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>264</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>265</v>
+      </c>
+      <c r="J38" t="s">
+        <v>266</v>
+      </c>
+      <c r="K38" t="s">
+        <v>267</v>
+      </c>
+      <c r="L38" t="s">
+        <v>268</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>269</v>
+      </c>
+      <c r="O38" t="s">
+        <v>60</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>1</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>270</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>271</v>
+      </c>
+      <c r="J39" t="s">
+        <v>272</v>
+      </c>
+      <c r="K39" t="s">
+        <v>273</v>
+      </c>
+      <c r="L39" t="s">
+        <v>274</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>269</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>276</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>277</v>
+      </c>
+      <c r="J40" t="s">
+        <v>278</v>
+      </c>
+      <c r="K40" t="s">
+        <v>279</v>
+      </c>
+      <c r="L40" t="s">
+        <v>280</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>269</v>
+      </c>
+      <c r="O40" t="s">
+        <v>80</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>2</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>282</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>283</v>
+      </c>
+      <c r="J41" t="s">
+        <v>284</v>
+      </c>
+      <c r="K41" t="s">
+        <v>285</v>
+      </c>
+      <c r="L41" t="s">
+        <v>286</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>287</v>
+      </c>
+      <c r="O41" t="s">
+        <v>80</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>289</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>290</v>
+      </c>
+      <c r="J42" t="s">
+        <v>291</v>
+      </c>
+      <c r="K42" t="s">
+        <v>292</v>
+      </c>
+      <c r="L42" t="s">
+        <v>293</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>294</v>
+      </c>
+      <c r="O42" t="s">
+        <v>60</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>296</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>297</v>
+      </c>
+      <c r="J43" t="s">
+        <v>298</v>
+      </c>
+      <c r="K43" t="s">
+        <v>299</v>
+      </c>
+      <c r="L43" t="s">
+        <v>300</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>301</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>302</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>303</v>
+      </c>
+      <c r="J44" t="s">
+        <v>304</v>
+      </c>
+      <c r="K44" t="s"/>
+      <c r="L44" t="s">
+        <v>305</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>306</v>
+      </c>
+      <c r="O44" t="s">
+        <v>60</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>308</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>309</v>
+      </c>
+      <c r="J45" t="s">
+        <v>310</v>
+      </c>
+      <c r="K45" t="s">
+        <v>311</v>
+      </c>
+      <c r="L45" t="s">
+        <v>312</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="s">
+        <v>313</v>
+      </c>
+      <c r="O45" t="s">
+        <v>87</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>2</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>2</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>314</v>
+      </c>
+      <c r="X45" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>317</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>318</v>
+      </c>
+      <c r="J46" t="s">
+        <v>319</v>
+      </c>
+      <c r="K46" t="s">
+        <v>320</v>
+      </c>
+      <c r="L46" t="s">
+        <v>321</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>322</v>
+      </c>
+      <c r="O46" t="s">
+        <v>80</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>323</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>324</v>
+      </c>
+      <c r="J47" t="s">
+        <v>325</v>
+      </c>
+      <c r="K47" t="s">
+        <v>326</v>
+      </c>
+      <c r="L47" t="s">
+        <v>327</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>328</v>
+      </c>
+      <c r="O47" t="s">
+        <v>60</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>330</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>331</v>
+      </c>
+      <c r="J48" t="s">
+        <v>332</v>
+      </c>
+      <c r="K48" t="s">
+        <v>333</v>
+      </c>
+      <c r="L48" t="s">
+        <v>334</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>335</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>336</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>337</v>
+      </c>
+      <c r="J49" t="s">
+        <v>338</v>
+      </c>
+      <c r="K49" t="s">
+        <v>339</v>
+      </c>
+      <c r="L49" t="s">
+        <v>340</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>335</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>342</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>343</v>
+      </c>
+      <c r="J50" t="s">
+        <v>344</v>
+      </c>
+      <c r="K50" t="s">
+        <v>345</v>
+      </c>
+      <c r="L50" t="s">
+        <v>346</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>347</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>348</v>
+      </c>
+      <c r="J51" t="s">
+        <v>349</v>
+      </c>
+      <c r="K51" t="s">
+        <v>350</v>
+      </c>
+      <c r="L51" t="s">
+        <v>351</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>352</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>2</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>354</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>355</v>
+      </c>
+      <c r="J52" t="s">
+        <v>356</v>
+      </c>
+      <c r="K52" t="s">
+        <v>357</v>
+      </c>
+      <c r="L52" t="s">
+        <v>358</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>359</v>
+      </c>
+      <c r="O52" t="s">
+        <v>60</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>360</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>361</v>
+      </c>
+      <c r="J53" t="s">
+        <v>362</v>
+      </c>
+      <c r="K53" t="s">
+        <v>363</v>
+      </c>
+      <c r="L53" t="s">
+        <v>364</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>365</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>366</v>
+      </c>
+      <c r="J54" t="s">
+        <v>367</v>
+      </c>
+      <c r="K54" t="s">
+        <v>368</v>
+      </c>
+      <c r="L54" t="s">
+        <v>369</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>370</v>
+      </c>
+      <c r="O54" t="s">
+        <v>80</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>371</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>372</v>
+      </c>
+      <c r="J55" t="s">
+        <v>373</v>
+      </c>
+      <c r="K55" t="s">
+        <v>374</v>
+      </c>
+      <c r="L55" t="s">
+        <v>375</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="s">
+        <v>376</v>
+      </c>
+      <c r="O55" t="s">
+        <v>87</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>378</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>379</v>
+      </c>
+      <c r="J56" t="s">
+        <v>380</v>
+      </c>
+      <c r="K56" t="s">
+        <v>381</v>
+      </c>
+      <c r="L56" t="s">
+        <v>382</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s">
+        <v>383</v>
+      </c>
+      <c r="O56" t="s">
+        <v>60</v>
+      </c>
+      <c r="P56" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>385</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>386</v>
+      </c>
+      <c r="J57" t="s">
+        <v>387</v>
+      </c>
+      <c r="K57" t="s">
+        <v>388</v>
+      </c>
+      <c r="L57" t="s">
+        <v>389</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>383</v>
+      </c>
+      <c r="O57" t="s">
+        <v>60</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>2</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>391</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>392</v>
+      </c>
+      <c r="J58" t="s">
+        <v>393</v>
+      </c>
+      <c r="K58" t="s">
+        <v>394</v>
+      </c>
+      <c r="L58" t="s">
+        <v>395</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>1</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>396</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>397</v>
+      </c>
+      <c r="J59" t="s">
+        <v>398</v>
+      </c>
+      <c r="K59" t="s">
+        <v>399</v>
+      </c>
+      <c r="L59" t="s">
+        <v>400</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>401</v>
+      </c>
+      <c r="O59" t="s">
+        <v>100</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>3</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>2</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>403</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>404</v>
+      </c>
+      <c r="J60" t="s">
+        <v>405</v>
+      </c>
+      <c r="K60" t="s">
+        <v>406</v>
+      </c>
+      <c r="L60" t="s">
+        <v>407</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>401</v>
+      </c>
+      <c r="O60" t="s">
+        <v>60</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" t="n">
+        <v>2</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>409</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>410</v>
+      </c>
+      <c r="J61" t="s">
+        <v>411</v>
+      </c>
+      <c r="K61" t="s">
+        <v>412</v>
+      </c>
+      <c r="L61" t="s">
+        <v>413</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="s">
+        <v>414</v>
+      </c>
+      <c r="O61" t="s">
+        <v>80</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>416</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>417</v>
+      </c>
+      <c r="J62" t="s">
+        <v>418</v>
+      </c>
+      <c r="K62" t="s">
+        <v>419</v>
+      </c>
+      <c r="L62" t="s">
+        <v>420</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>414</v>
+      </c>
+      <c r="O62" t="s">
+        <v>60</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>421</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>422</v>
+      </c>
+      <c r="J63" t="s">
+        <v>423</v>
+      </c>
+      <c r="K63" t="s">
+        <v>424</v>
+      </c>
+      <c r="L63" t="s">
+        <v>425</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>414</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>426</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>427</v>
+      </c>
+      <c r="J64" t="s">
+        <v>428</v>
+      </c>
+      <c r="K64" t="s">
+        <v>429</v>
+      </c>
+      <c r="L64" t="s">
+        <v>430</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>414</v>
+      </c>
+      <c r="O64" t="s">
+        <v>60</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>431</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>432</v>
+      </c>
+      <c r="J65" t="s">
+        <v>433</v>
+      </c>
+      <c r="K65" t="s">
+        <v>434</v>
+      </c>
+      <c r="L65" t="s">
+        <v>435</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>436</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>437</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>438</v>
+      </c>
+      <c r="J66" t="s">
+        <v>439</v>
+      </c>
+      <c r="K66" t="s">
+        <v>440</v>
+      </c>
+      <c r="L66" t="s">
+        <v>441</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="s">
+        <v>436</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>2</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>1</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>442</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>443</v>
+      </c>
+      <c r="J67" t="s">
+        <v>444</v>
+      </c>
+      <c r="K67" t="s">
+        <v>445</v>
+      </c>
+      <c r="L67" t="s">
+        <v>446</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>447</v>
+      </c>
+      <c r="O67" t="s">
+        <v>100</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>448</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>449</v>
+      </c>
+      <c r="J68" t="s">
+        <v>450</v>
+      </c>
+      <c r="K68" t="s">
+        <v>451</v>
+      </c>
+      <c r="L68" t="s">
+        <v>452</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>453</v>
+      </c>
+      <c r="O68" t="s">
+        <v>60</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>455</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>456</v>
+      </c>
+      <c r="J69" t="s">
+        <v>457</v>
+      </c>
+      <c r="K69" t="s">
+        <v>458</v>
+      </c>
+      <c r="L69" t="s">
+        <v>459</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>460</v>
+      </c>
+      <c r="O69" t="s">
+        <v>60</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>461</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>462</v>
+      </c>
+      <c r="J70" t="s">
+        <v>463</v>
+      </c>
+      <c r="K70" t="s">
+        <v>464</v>
+      </c>
+      <c r="L70" t="s">
+        <v>465</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>460</v>
+      </c>
+      <c r="O70" t="s">
+        <v>60</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>466</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>467</v>
+      </c>
+      <c r="J71" t="s">
+        <v>468</v>
+      </c>
+      <c r="K71" t="s">
+        <v>469</v>
+      </c>
+      <c r="L71" t="s">
+        <v>470</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>471</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>472</v>
+      </c>
+      <c r="J72" t="s">
+        <v>473</v>
+      </c>
+      <c r="K72" t="s">
+        <v>474</v>
+      </c>
+      <c r="L72" t="s">
+        <v>475</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>476</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>478</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>479</v>
+      </c>
+      <c r="J73" t="s">
+        <v>480</v>
+      </c>
+      <c r="K73" t="s">
+        <v>481</v>
+      </c>
+      <c r="L73" t="s">
+        <v>482</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>476</v>
+      </c>
+      <c r="O73" t="s">
+        <v>60</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>483</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>484</v>
+      </c>
+      <c r="J74" t="s">
+        <v>485</v>
+      </c>
+      <c r="K74" t="s">
+        <v>486</v>
+      </c>
+      <c r="L74" t="s">
+        <v>487</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>476</v>
+      </c>
+      <c r="O74" t="s">
+        <v>80</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>488</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>489</v>
+      </c>
+      <c r="J75" t="s">
+        <v>490</v>
+      </c>
+      <c r="K75" t="s">
+        <v>491</v>
+      </c>
+      <c r="L75" t="s">
+        <v>492</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>493</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>495</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>496</v>
+      </c>
+      <c r="J76" t="s">
+        <v>497</v>
+      </c>
+      <c r="K76" t="s">
+        <v>498</v>
+      </c>
+      <c r="L76" t="s">
+        <v>499</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>476</v>
+      </c>
+      <c r="O76" t="s">
+        <v>100</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>2</v>
+      </c>
+      <c r="S76" t="n">
+        <v>3</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>500</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>501</v>
+      </c>
+      <c r="J77" t="s">
+        <v>502</v>
+      </c>
+      <c r="K77" t="s">
+        <v>503</v>
+      </c>
+      <c r="L77" t="s">
+        <v>504</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="s">
+        <v>505</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>1</v>
+      </c>
+      <c r="R77" t="n">
+        <v>1</v>
+      </c>
+      <c r="S77" t="n">
+        <v>1</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>1</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>506</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>507</v>
+      </c>
+      <c r="J78" t="s">
+        <v>508</v>
+      </c>
+      <c r="K78" t="s">
+        <v>509</v>
+      </c>
+      <c r="L78" t="s">
+        <v>510</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="s"/>
+      <c r="O78" t="s"/>
+      <c r="P78" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>1</v>
+      </c>
+      <c r="R78" t="n">
+        <v>1</v>
+      </c>
+      <c r="S78" t="n">
+        <v>1</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>1</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>511</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>512</v>
+      </c>
+      <c r="J79" t="s">
+        <v>513</v>
+      </c>
+      <c r="K79" t="s">
+        <v>514</v>
+      </c>
+      <c r="L79" t="s">
+        <v>515</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" t="s">
+        <v>516</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="n">
+        <v>3</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>517</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>518</v>
+      </c>
+      <c r="J80" t="s">
+        <v>519</v>
+      </c>
+      <c r="K80" t="s">
+        <v>520</v>
+      </c>
+      <c r="L80" t="s">
+        <v>521</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s"/>
+      <c r="O80" t="s"/>
+      <c r="P80" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>1</v>
+      </c>
+      <c r="R80" t="n">
+        <v>1</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>1</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>522</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>523</v>
+      </c>
+      <c r="J81" t="s">
+        <v>524</v>
+      </c>
+      <c r="K81" t="s">
+        <v>525</v>
+      </c>
+      <c r="L81" t="s">
+        <v>526</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s">
+        <v>527</v>
+      </c>
+      <c r="O81" t="s">
+        <v>60</v>
+      </c>
+      <c r="P81" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>1</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>1</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>528</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>529</v>
+      </c>
+      <c r="J82" t="s">
+        <v>530</v>
+      </c>
+      <c r="K82" t="s">
+        <v>531</v>
+      </c>
+      <c r="L82" t="s">
+        <v>532</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s">
+        <v>527</v>
+      </c>
+      <c r="O82" t="s">
+        <v>60</v>
+      </c>
+      <c r="P82" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>1</v>
+      </c>
+      <c r="R82" t="n">
+        <v>1</v>
+      </c>
+      <c r="S82" t="n">
+        <v>1</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>1</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>533</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>534</v>
+      </c>
+      <c r="J83" t="s">
+        <v>535</v>
+      </c>
+      <c r="K83" t="s">
+        <v>536</v>
+      </c>
+      <c r="L83" t="s">
+        <v>537</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="s">
+        <v>538</v>
+      </c>
+      <c r="O83" t="s">
+        <v>60</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="s"/>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>540</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>541</v>
+      </c>
+      <c r="J84" t="s">
+        <v>542</v>
+      </c>
+      <c r="K84" t="s">
+        <v>543</v>
+      </c>
+      <c r="L84" t="s">
+        <v>544</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="s">
+        <v>545</v>
+      </c>
+      <c r="O84" t="s">
+        <v>100</v>
+      </c>
+      <c r="P84" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>1</v>
+      </c>
+      <c r="R84" t="n">
+        <v>2</v>
+      </c>
+      <c r="S84" t="n">
+        <v>1</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>2</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>547</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>548</v>
+      </c>
+      <c r="J85" t="s">
+        <v>549</v>
+      </c>
+      <c r="K85" t="s">
+        <v>550</v>
+      </c>
+      <c r="L85" t="s">
+        <v>551</v>
+      </c>
+      <c r="M85" t="n">
+        <v>2</v>
+      </c>
+      <c r="N85" t="s"/>
+      <c r="O85" t="s"/>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>2</v>
+      </c>
+      <c r="R85" t="s"/>
+      <c r="S85" t="n">
+        <v>3</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>3</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>552</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>553</v>
+      </c>
+      <c r="J86" t="s">
+        <v>554</v>
+      </c>
+      <c r="K86" t="s">
+        <v>555</v>
+      </c>
+      <c r="L86" t="s">
+        <v>556</v>
+      </c>
+      <c r="M86" t="n">
+        <v>2</v>
+      </c>
+      <c r="N86" t="s"/>
+      <c r="O86" t="s"/>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="s"/>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>557</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>558</v>
+      </c>
+      <c r="J87" t="s">
+        <v>559</v>
+      </c>
+      <c r="K87" t="s">
+        <v>560</v>
+      </c>
+      <c r="L87" t="s">
+        <v>561</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="s"/>
+      <c r="O87" t="s"/>
+      <c r="P87" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1</v>
+      </c>
+      <c r="R87" t="s"/>
+      <c r="S87" t="n">
+        <v>1</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>1</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>37589</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>563</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>564</v>
+      </c>
+      <c r="J88" t="s">
+        <v>565</v>
+      </c>
+      <c r="K88" t="s">
+        <v>566</v>
+      </c>
+      <c r="L88" t="s">
+        <v>567</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="s"/>
+      <c r="O88" t="s"/>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="s"/>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>568</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_596.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_596.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="654">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>larrynh2015</t>
+  </si>
+  <si>
     <t>07/08/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>Ck in ladies friendly and informative.  However I had asked on line and called ahead to be close to elevator and have extra towels.  We were quite far from elevator and had to ask front desk for additional towels. Not happy.  The breakfast area is very small. My family had to sit at two tables and that only left two tables for others.  The listed time for end of breakfast is 9:30.   We went down at 8:30 and many items were very low or totally gone.  I asked to have items replenished and was told no.  Really not happy!!  Room was average.  Hotel definitely needs to be refurbished- new carpet especially.More</t>
   </si>
   <si>
+    <t>sera537</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r587257566-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>dobshmd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r587079314-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t>I came early and could not check in; OK they stored my bag.  I had a late meeting and got back at 10.  Up I went to my room:  the bed was not made, linens all over the floor.  I called down and the clerk said she would be right up.  So I assumed it would be to make my bed and unpacked a few things.  20 min later she appeared...I had to pack up and move to a different room.  The new room was dirty, carpet stains, and on the street so noisy....Oh, then I went to turn on the news and the TV did not turn on.  I called her and her response: "mam. do you really want to watch tv now?"  Really???????  She offered to comp the price,ok.  Then getting into bed: NO BLANKET.  I give up.  And stains on the carpet and smells like urine.More</t>
   </si>
   <si>
+    <t>Laura S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r529608513-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -240,6 +252,9 @@
     <t>My family of 5 stayed here the night of 9/30/17 and it was so awful and disgusting I cried. We checked in late in the evening and all of my alarm bells were going off but it was too late to find new accommodations for us. The location is unsafe, the lobby is tiny and disgusting, the rooms all have doors facing out, the parking is abysmal and the rooms are DISGUSTING. Dirty floors, stained carpets and bedding, peeling walls and more. I’m 100% certain there was a drug deal going on right outside of our door. This is our first stay at a Choice Hotel that was utterly disappointing. The next night we stayed in a different choice hotel property that was a million times better. I don’t even know how this place is still in business. It’s absolutely awful. Please heed my advice if you value the safety and comfort of your family- LOOK ELSEWHERE!! More</t>
   </si>
   <si>
+    <t>Magic K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r520755939-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -264,6 +279,9 @@
     <t>We arrived at around 9pm after a very long flight. Check in took a little while and the lobby was very old and rundown. A photocopy of my credit card and passport was taken. The hotel is very old and run down and not in a great area. There are lots of unsavoury people walking around the hotel. Our room was on the 3rd floor right at the end of the open corridors. On exiting the list all we could smell was drugs and this lasted pretty much to our room. It was loud in the hotel with people shouting and we didn't feel safe. So much so we left at 7am after a very disturbed nights sleep. The rooms were ok. Clean enough and we're in ok condition so the actual room wasn't a problem. I wouldn't stay again due to safety concerns and I wouldn't recommend to families for this very same issue. We are a late 20s couple not from the safest city so to feel unsafe here wasn't good. More</t>
   </si>
   <si>
+    <t>Michelle H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r509125354-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -282,6 +300,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>1bsylady</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r486957673-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -300,6 +321,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>cody b</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r484429586-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -321,6 +345,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Cisco and Mary O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r476184883-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -336,6 +363,9 @@
     <t>the people were really nice and tried to accommodate us  the bad part about being here are is that people smoke in the walkways when you don't smoke that smell is awful the net give me whatever else you need breakfast was free Internet was good it's close to an intersection so if you're facing that direction you could hear a little bit of noise it was not bad where I was at</t>
   </si>
   <si>
+    <t>Logan G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r470408956-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -354,6 +384,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>evansj862</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r468821548-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -372,6 +405,9 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>Patricia M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r466398174-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -390,6 +426,9 @@
     <t>My husband and I needed a hotel close to the airport so in that respect it met our needs. The room was clean but the hotel needs updating. We were on the top floor. As a result of heavy rain, we had a leak from the ceiling. We called the front desk and maintenance checked it out but never returned. Around 11PM, we had another leak behind the air conditioner. We were not sure if it was coming from the AC unit or the wall behind the AC unit. It was late and we were checking out the next day so we put the ice bucket under it and emptied it four times during the night.  Breakfast was ok. There were enough choices and good coffee. But the breakfast room was very very small.  It was 3 or 4 small tables. There was a large group of students in the morning so not enough tables/chairs. Definitely not a good experience.More</t>
   </si>
   <si>
+    <t>eshoptodrop</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r443878139-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -408,6 +447,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>Juanita H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r442245182-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -426,6 +468,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>Heslins</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r417058191-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -444,6 +489,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>Donna R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r386657125-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -462,6 +510,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>amie h</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r380652832-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -480,6 +531,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>jacobsyaya05</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r371641111-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -495,6 +549,9 @@
     <t>Stayed here with kids to visit universal studios. Ive gotta say, this place is very sketchy looking. Next to an alley where people are acting strange. Was a bit worried about what our room was gonna look like. Well to my surprise, It was nice and clean. Very comfy. But if u plan on sleeping in or are a light sleeper forget about it. Train runs right in front of hotel honking horn every time it passes. Very annoying. Also bridge work going on so construction work is very loud. Also hotel stated they have a shuttle. Well they dont! Breakfast wasnt a hit either. Will not be returning.</t>
   </si>
   <si>
+    <t>Donna  H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r364980175-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -513,6 +570,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>03fem80</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r359438440-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -531,6 +591,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>cowboysteve</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r356888436-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -546,6 +609,9 @@
     <t>This was close to where so old friends live in Burbank so we gave it a try.It's an older property and seemed clean enough but the parking sucks, the train noise was over my limit.It's pretty bad when you have been up 20 hours and then a train shakes your room every 2 hours.The breakfast room is the smallest I have ever seen...the food was sort of ok, but by then we where ready to run and we did!  Never again</t>
   </si>
   <si>
+    <t>Ana-Maria C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r354019605-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -561,6 +627,9 @@
     <t xml:space="preserve">we booked our room 5 days earlier . When we arrived at the hotel  the guy from the frontdesk said that our card didn't worked ,but nobody bothered to let us know this earlier  . This wasn't nice at all . The frontdesk guy was angry ,he said that everything is booked . We went out and we checked on the Internet , they still had 2 or 3 rooms available  . Finally, after 30 minutes we got a room . The breakfast was pretty good but the place was so small , they had like 2 tables . </t>
   </si>
   <si>
+    <t>Brandy W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r335272382-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -579,6 +648,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Michael A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r332166583-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -597,6 +669,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>Anessia C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r307961813-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -615,6 +690,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>Chester l</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r293937155-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -633,6 +711,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>Spencer A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r291432559-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -651,6 +732,9 @@
     <t>I read a lot of bad reviews of this place, but booked anyway since they seemed to be expecting a lot more than any other Quality Inn I've ever stayed in. The girl at the front desk (I think her name was Vanessa) was incredibly helpful. She got me checked in quickly and answered a few questions I had about the hotel and the best ways to get around (I only stayed here in order to meet friends who got in a day after me before going down to Anaheim). When I got up to the room neither of my keys worked, I tried multiple times before going back down to the desk. She apologized and remade them, but they still didn't work. She packed up all of her things and came with me to the room to try and find the problem, when she used her key it worked right away so she told me to come back down to the desk when I was ready and she'd make me brand new ones and those ones worked perfectly. The room is nothing special but it's not dirty. There was one section of wall paper in the bathroom that had been peeled off but I hardly consider that uncleanly. The floor felt like it had been humid (I got in pretty late in the evening and don't know what it was like during the day) but I turned on the...I read a lot of bad reviews of this place, but booked anyway since they seemed to be expecting a lot more than any other Quality Inn I've ever stayed in. The girl at the front desk (I think her name was Vanessa) was incredibly helpful. She got me checked in quickly and answered a few questions I had about the hotel and the best ways to get around (I only stayed here in order to meet friends who got in a day after me before going down to Anaheim). When I got up to the room neither of my keys worked, I tried multiple times before going back down to the desk. She apologized and remade them, but they still didn't work. She packed up all of her things and came with me to the room to try and find the problem, when she used her key it worked right away so she told me to come back down to the desk when I was ready and she'd make me brand new ones and those ones worked perfectly. The room is nothing special but it's not dirty. There was one section of wall paper in the bathroom that had been peeled off but I hardly consider that uncleanly. The floor felt like it had been humid (I got in pretty late in the evening and don't know what it was like during the day) but I turned on the A/C and by the time I got out of the bed in the morning it was fine. Yes the walls are thin, yes there is a lot of noise but again this is a Quality Inn not a 5-Star resort. I was able to get a good night's sleep, shower, breakfast and be on my way again so I really can't complain.If I did have something to complain about it would be that the wifi wasn't working until I got up in the morning. When I was checking in the girl at the desk was on the phone with someone asking them to fix it though so I know that things happen sometimes. I would warn people about that if they are traveling for business and don't have their own personal hotspots for backup. If I ever come back to Los Angeles &amp; fly into Burbank I would definitely stay here again. I flew into LAX but even my Uber driver said that staying out here was better than staying around LAX, however I'm a 22 year old traveling alone from the midwest so I am sure for someone used to really big cities it wouldn't be a problem.More</t>
   </si>
   <si>
+    <t>Heather N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r278108655-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -672,6 +756,9 @@
     <t>Not the best place in the world but if you can tolerate noise for one night, then it's fine. I, unfortunately, had a splitting headache that night and it sounded like construction was going on outside until about 3:30am. Just shortly after that, the train went by blowing its horn. I can't tell you how many times that train went by but needless to say, I didn't get much sleep. Oh and there is about a 1 inch gap under the door for anything that can crawl to come under there. A bit creepy...thankfully, nothing did come crawling in. The continental free breakfast was a bit small and the other hotel guests didn't seem to have manners to move out of the way and let other people in so we just walked next door to Jack in the Box for breakfast.More</t>
   </si>
   <si>
+    <t>jeonggg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r272001314-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -687,6 +774,9 @@
     <t>I made reservations thru online and the person who recommended this place lied to me. It was shabby and very old and run down place. It was so different from what I heard on the phone. The person who recommended this place didn't have any clue about this hotel. It was in a corner of place where it seems very dangerous to walk at night time. When I arrived there I was so shocked and the receptionist wad not friendly. I felt so cheated by online recommendation.</t>
   </si>
   <si>
+    <t>Dan834</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r264727948-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -705,6 +795,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>Fa R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r257445410-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -720,6 +813,9 @@
     <t>It is 7 am and there is literally a giant jack hammer going outside my window. Last time I stayed here I left a handmade bracelet.  I called within an hour to get it back and the maid had already taken it. I called for days and no central management ever answered or addressed the problem. The toilet was so dirty I had wash it before I used it. This place is horrid. Stay anywhere eles. 0 is a better rating for this place</t>
   </si>
   <si>
+    <t>shelly w</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r256240146-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -741,6 +837,9 @@
     <t>Had I been driving by looking for a place to stay I would have not stopped.  But since I booked online and had already paid for the room I stopped for the night.  I have never stayed at a place where there was graffiti inside the room on the walls.   I think we were the only "guest" staying there and everyone else lived there. It was like staying at a mission. I slept on top of the bed with my clothes and shoes on.  The bathroom door had a big piece of bubble gum on the lock. The towel were not only paper thin but scratchy like sand paper.  TV faded in and out.  The room in general was dirty and had an odor to it.  The sounds during the night (and I'm not talking about the freeway) kept me on edge and ready to run.  If you want sleep this is not the place for you.  I should have kept going and not stayed.More</t>
   </si>
   <si>
+    <t>den979</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r255679753-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -754,6 +853,9 @@
   </si>
   <si>
     <t>Staff was friendly and they do try.  But - this is not a good location.  The only restaurant nearby is a Jack-in-the-Box.  Outside corridors are dark at night.  Hotel is old - but the room was clean enough  Very close to the airport and they do have a shuttle.  We left too early for breakfast - they had promised a "go-bag" breakfast but the morning clerk did not want to be bothered.  We had a "suite" at $160/night.  Much too expensive for this hotel.</t>
+  </si>
+  <si>
+    <t>MsThyng</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r240600746-Quality_Inn-Burbank_California.html</t>
@@ -784,6 +886,9 @@
 Second was the tiny kitchenette where they set up breakfast. The options for breakfast were fine, but you either had to use milk or pre-made vanilla creamers in your coffee. I don't like either one. Yuck. The eggs must be powdered and then reconstituted. I've never seen such gritty and odd snapped egg patties....My friend and I stayed in a 2nd floor Executive Room with 2 Queen beds for three nights. There was an abundance of soft fluffy towels in the bathroom. It was easily one of the cleanest bathrooms in a hotel (minus the Hilton suites) I've stayed in. There was good water pressure and plenty of hot water. My friend had a problem with fluctuations in temperature while she was showering, but I tend to take a slightly above warm shower and had no problems. The beds were comfortable, if a bit firmer than I prefer. Linens were clean and attractive. The pillows were very nice, being a down alternative fill and of different firmnesses! Nice touch!We were next onto a 24-hour Jack In The Box and on a main thoroughfare, but the noise was minimal. I had no trouble sleeping.Only two things that were not so good; one was that we went to use the coffeemaker and found there was a old filter and coffee in it that was not cleaned. That was fine, we went downstairs and got coffee in the tiny kitchenette. Second was the tiny kitchenette where they set up breakfast. The options for breakfast were fine, but you either had to use milk or pre-made vanilla creamers in your coffee. I don't like either one. Yuck. The eggs must be powdered and then reconstituted. I've never seen such gritty and odd snapped egg patties. Weird stuff. Go next door to Jack or have cereal or toast ;)Staff was friendly and helpful. No problems there whatsoever! I would stay there again.More</t>
   </si>
   <si>
+    <t>LVLP</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r239388551-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -805,6 +910,9 @@
     <t>We picked this hotel as it was close to places we intended to visit.  The facility is old however it did seem clean.  The room was average sized, nice TV, beds were okay.  My son was able to access the free wi-fi without issue.  I guess I had higher expectations, here are the reasons we will not stay again, nor recommend this place.  Carpets are FILTHY, shower pressure was weak and the temperature would often change while we were in the middle of our showers - it got much hotter to the point of scalding!   The TV had maybe 4 channels, no CNN or national news stations, mostly analog with a bit of fuzz.  Hotel is near a train station which wakes you in the middle of the night.   Breakfast was included...a TINY counter space that housed muffins (which were very good), toast, dry english muffins, cereal, yogurt, something that was supposed to be a sausage patty &amp; scrambled egg disks which did not resemble actual meat or dairy.  The type of clientle we encountered had no regard for others.   They would take their time getting food while others stood in the lobby waiting to be able to enter the area.  There were 3 tables where a total of 8 people could sit &amp; eat.   When I was checking out I wanted to advise them of some issues however I was never asked about my stay, just my room #,...We picked this hotel as it was close to places we intended to visit.  The facility is old however it did seem clean.  The room was average sized, nice TV, beds were okay.  My son was able to access the free wi-fi without issue.  I guess I had higher expectations, here are the reasons we will not stay again, nor recommend this place.  Carpets are FILTHY, shower pressure was weak and the temperature would often change while we were in the middle of our showers - it got much hotter to the point of scalding!   The TV had maybe 4 channels, no CNN or national news stations, mostly analog with a bit of fuzz.  Hotel is near a train station which wakes you in the middle of the night.   Breakfast was included...a TINY counter space that housed muffins (which were very good), toast, dry english muffins, cereal, yogurt, something that was supposed to be a sausage patty &amp; scrambled egg disks which did not resemble actual meat or dairy.  The type of clientle we encountered had no regard for others.   They would take their time getting food while others stood in the lobby waiting to be able to enter the area.  There were 3 tables where a total of 8 people could sit &amp; eat.   When I was checking out I wanted to advise them of some issues however I was never asked about my stay, just my room #, as the person at the desk had the phone to her ear the entire time.....not even a thank you!More</t>
   </si>
   <si>
+    <t>William Q</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r232791894-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -820,6 +928,9 @@
     <t xml:space="preserve">Me and my wife stayed 2 nights and the room was wonderful.  Outside not that pretty but the price was great for a Weekend stay. The gentleman at front desk was pleasant. I would stay here again in a heart beat. </t>
   </si>
   <si>
+    <t>660bkamdar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r224364233-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -838,6 +949,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>Debra P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r222749255-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -856,6 +970,9 @@
     <t>This is one of my worst hotel stays.  When I looked on line it was showing a 3 star on your site so I thought it couldn't be that bad.  Let me tell you..  In my room the wallpaper was coming off  the wall and my walls were dirty, plus I had spider web in the corner of the room. The mini refrigerator had dings in the door on the outside.  My husband said it looked like a rundown crack hotel. My daughters room next door also had dirty walls and her air conditioner was leaking water. So when I called the front desk to see if we could move to another room they said no they were filled up. So they put blankets and towels down to help with the water leaking, cause they could not get anyone to come fix the air conitioner. I asked if I leave can i get my money back or points back they said no. I even asked the next day could we at least get some kind of discount. which they told me no they could not and that I had the choice to stay there. you. The train ran up till like 11:30pm next to hotel. The hotel was set in the parking lot of Jack in Box so all night people were placing orders for drive thru and the parking was one way in one way out. And yes they...This is one of my worst hotel stays.  When I looked on line it was showing a 3 star on your site so I thought it couldn't be that bad.  Let me tell you..  In my room the wallpaper was coming off  the wall and my walls were dirty, plus I had spider web in the corner of the room. The mini refrigerator had dings in the door on the outside.  My husband said it looked like a rundown crack hotel. My daughters room next door also had dirty walls and her air conditioner was leaking water. So when I called the front desk to see if we could move to another room they said no they were filled up. So they put blankets and towels down to help with the water leaking, cause they could not get anyone to come fix the air conitioner. I asked if I leave can i get my money back or points back they said no. I even asked the next day could we at least get some kind of discount. which they told me no they could not and that I had the choice to stay there. you. The train ran up till like 11:30pm next to hotel. The hotel was set in the parking lot of Jack in Box so all night people were placing orders for drive thru and the parking was one way in one way out. And yes they did have only like 6-9 Tv channels ..Really    Worst place everMore</t>
   </si>
   <si>
+    <t>Artie B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r219617899-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -872,6 +989,9 @@
   </si>
   <si>
     <t>We live in a city with thousands of hotel rooms...All different quality can be found there...It is Las Vegas...Usually you can't miss getting a decent place to put your head...Switch to Burbank, California...We usually stay at the Hampton Inn or the Burbank Inn...BUT they were full up and we settled on this place...we're here to see a good friend try to score some bucks on "Jeopardy"...Taping will be fun to see, but this QI is not...Run down (with a basic prison look outside) we have a total of TWELVE TV channels to view...Yep, in 2014 that is our choice TV line up...Stuff on the walls...See the pixs to check out the unintentional artwork in our room...Regardless what you pay, stay away from the QI...Our fellow room buddies were on the lower scale of life's ladder...When we walked to our room I thought we would be waylaid by the biker dude with the wife beater sweats...Everybody has to be somewhere...We just don't have to be here...Visiting Burbank, pass on the Quality Inn...More</t>
+  </si>
+  <si>
+    <t>spudsters</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r210152098-Quality_Inn-Burbank_California.html</t>
@@ -905,6 +1025,9 @@
 Then to top it all off the elevator wasn't working in the morning!  We were on the top floor and I have knee issues which causes me to have problems walking stairs so elevators are important to me.  There was no sign saying that the elevator wasn't working so we waited by it for a while thinking other people...We were using this hotel as a stopover on our trip not wanting to stay in L.A. proper but close to it and saw good reviews of this hotel.  For once I could not agree with any of the good things said about this place.  The only positive thing about our stay was that the room space was ok.  We got back to the hotel late after visiting with friends in LA so we were too tired to ask to switch rooms.Where do I start?  The air conditioner worked only well enough to take the edge off of the heat.  We turned it down as far as the thermostat would go and we both were sweating the whole night.  It would turn on for a couple of min. then shut off.The TV only received a few local channels with several of those fuzzy.There was a switch cover over the bed that was half attached looking as if it could fall any min.It was hard to get hot water for the shower.  The shower was warm at best.Then to top it all off the elevator wasn't working in the morning!  We were on the top floor and I have knee issues which causes me to have problems walking stairs so elevators are important to me.  There was no sign saying that the elevator wasn't working so we waited by it for a while thinking other people were using it.  After walking down and telling the person at the desk about it her response was that maybe they should turn on the fan by the motor as sometimes it overheats!More</t>
   </si>
   <si>
+    <t>Michael P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r210033517-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -926,6 +1049,9 @@
     <t>I've stayed at many of the Choice Hotel properties around the country, and I chose this for a one night stay that wasn't go to break the bank (I had stayed at the Marriott for the previous three nights at double the price). This Quality Inn is sooooo tired looking. Laying in bed I couldn't believe I was staring at a "cottage cheese" ceiling. The elevator (when it worked) is slow, loud, and the interior panels are marred with graffiti. The free breakfast was ample, but holy cow, only seating for nine people tucked into an extremely small space. The only upside to the one night was the very comfortable bed. It was a surprise considering all the other downsides to the property.More</t>
   </si>
   <si>
+    <t>Caroline N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r203457518-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -944,6 +1070,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>RC242014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r196596450-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -962,6 +1091,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>kumarldh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r195577471-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -989,6 +1121,9 @@
     <t>To start with, I saw ants in bathroom and even on bed. Now good parts. Bed was good. TV had Armenian channels, good for people who can understand Armenian language. Close to down town and if Universal City. Breakfast was just standard stuff. The Indian guy at reception wasn't courteous. I forgot the name of lady who checked me in. I needed printout of my ticket to Universal Studio and the lady said she will print it for me. I was happy and said I will collect it later. Later this Indian guy at reception, must be the grumpy guy who works in graveyard shifts, bluntly refused. In fact he said, "I have just joined, sorry can't help you, we don't have rights and what not". Thankfully Universal Studios issues you entry pass if you can produce an email. So IMHO, if someone is **just interested in spending a night in Burbank** and is budget conscious, this is the place to sleep.More</t>
   </si>
   <si>
+    <t>Adventurous2705</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r191155712-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -1007,6 +1142,9 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>Ben C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r187576456-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -1028,6 +1166,9 @@
     <t>Don't stay here unless you like to hear the train go by blowing its whistle and the traffic on San Fernando Rd. and Buena Vista.  But what really got my goat was the fact that I had no television.  When I checked in I turned it on but got nothing but snow.  I called the front desk and  they suggested checking the cable connection.  I thought this was a little weird, but did so and found there was no nut on the cable to secure it to the TV input.  I asked for another room but was told only the manager could do that and he would not be in for a half hour.  I decided rather that just col my heels for a half hour, I would just stay without TV.  The next morning as I was leaving I turned the TV outward and pulled the cable up to show it was disconnected, but to my surprise the cable wasn't connected to the wall either.  The cable outlet was bent up so it couldn't be connected.  Therefore, they knew this room had no cable TV but gave it to me anyway.  Their sharp practices have earned my enmity forever.More</t>
   </si>
   <si>
+    <t>LIDIA L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r181066144-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -1046,6 +1187,9 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>queenwolf2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r180872348-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -1064,6 +1208,9 @@
     <t>The two front desk young ladies were more than helpful from the booking to the addlitional night's stay.  The manager/owner ( I assumed that because of the way he treated everyone around him and how they seemed to jump for him) not so much so.  We had originally planned for two nights.  The first night there, wifi issues.  He was no help.  The TV in my brothers room would not work, he offered no solution.  AND when it was back and working the next morning and he called to let them know, this guy doesn't even answer with his name, hotel name, any greeting just yes, or hello.  He was rude and unfriendly from checkin.  My brother told him the TV was working, he simply said "okay" and hung up.  that was it.  It took 35 rings to get him to answer and when he did, he was rude.  When we decided to stay another night, we stopped at the desk the night before, paid for everything and kept same rooms.  We were not told we would need new key.  I went to meet my sister, was locked out because old key did not work and you would think rolling a chair over to make a key was asking a lot.  My brother went to go get ice, was locked out because his old key also would not work.  He went to the front desk...no smile, no greeting, he was...The two front desk young ladies were more than helpful from the booking to the addlitional night's stay.  The manager/owner ( I assumed that because of the way he treated everyone around him and how they seemed to jump for him) not so much so.  We had originally planned for two nights.  The first night there, wifi issues.  He was no help.  The TV in my brothers room would not work, he offered no solution.  AND when it was back and working the next morning and he called to let them know, this guy doesn't even answer with his name, hotel name, any greeting just yes, or hello.  He was rude and unfriendly from checkin.  My brother told him the TV was working, he simply said "okay" and hung up.  that was it.  It took 35 rings to get him to answer and when he did, he was rude.  When we decided to stay another night, we stopped at the desk the night before, paid for everything and kept same rooms.  We were not told we would need new key.  I went to meet my sister, was locked out because old key did not work and you would think rolling a chair over to make a key was asking a lot.  My brother went to go get ice, was locked out because his old key also would not work.  He went to the front desk...no smile, no greeting, he was on his puter and my brother had to asked for assitance...he asked for a key and he huffingly made it.   My brother then asked for new internet access because our slip said valid only two days...he signed rolled his chair over and pulled out the paper.  no comment to my brother, just dropped it on the desk.  When he asked for coffee (mind you we did not use housekeeping at all either of us) he could not be bothered to get it....he hollered to a girl cleaning the breakfast room to come and get coffee.  IT WAS IN THE CABINET BY HIM....He gives you hotel a bad name.  HONESTLY...if we had not had such a nice room in Barstow with one of the nicest checkins EVER (Anna), I would rethink Quality and go for Comfort Inn.  He was a horrible person to deal with.  We were not staying for free and I HATE GIVING MY MONEY to someone so rude.  If you do not like dealing with us, then find something else to do.  We were very low-key, did not use housekeeping and simply BOTHERED HIM when it was because of their issues or for coffee.More</t>
   </si>
   <si>
+    <t>mrn111</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r168661895-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -1079,6 +1226,9 @@
     <t>Stayed 2 nights - longest 2 nights ever - Like being in the ghetto!  Rooms musty and stink!  Police in parking lot, loud gangsta looking crowd drinking in parking lot! Service - well - there isnt ANY!  Asked for more towels... After several hours was brought one (1)!  Card keys didnt work twice!  Convenient to Universal - but do yourself a favor, pay a few more dollars and stay somewhere safer and nicer!</t>
   </si>
   <si>
+    <t>Arthur P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r168120753-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -1100,6 +1250,9 @@
     <t>Stayed here on a road trip - went to some Dodger Games and this was a great location for a quick drive to and from.  Arrived an hour after the check-in time and room was not ready which didn't sit well with the wife since we were on a time schedule and tired.  Sat in lobby for 20 minutes with our luggage (and cranky wife and child) while room was cleaned ... not cool but we lived.  Freeway noise was not an issue as some others have stated - although the freight train at 1:14AM blowing it's freight train horn less than 50 yards from our door was a bit of a "thing".  Craziness - sent us all through the roof as scared us to death!  Took awhile to get the blood pressure regulated and back to sleep ...but the room/bathroom was clean and the bed was very comfortable - slept well enough and was rested for fun the next day!  Not 100% sure would stay here again due to the train (seriously - it was L-O-U-D!) but it was only once and the only other train was the MetroLink which is no big deal...would depend on the price if we decide to stay here again next time we road trip.More</t>
   </si>
   <si>
+    <t>Alvaro B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r161019709-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -1116,6 +1269,9 @@
   </si>
   <si>
     <t>May 2013</t>
+  </si>
+  <si>
+    <t>Johns1243</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r151139531-Quality_Inn-Burbank_California.html</t>
@@ -1134,6 +1290,9 @@
     <t>The service at Quality inn Burbank can't be beat, the location is amazing. If you've just flown in from a long flight this is the place to stay, the staff will really look after you! We were upgraded to a one bedroom suite while we were there, so spacious, so much room. We checked in at 2 a.m., was very quite and didn’t bother us any traffics noise. After we stayed this quality inn we will stay again and again for any quality inn.</t>
   </si>
   <si>
+    <t>eshack</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r151034638-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -1152,6 +1311,9 @@
     <t>January 2013</t>
   </si>
   <si>
+    <t>Zoom_Gotti</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r148239942-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -1173,6 +1335,9 @@
     <t>This is a relatively unattractive motel next to the freeway, with both freeway and MetroRail noise throughout the night.  I only stayed one night, so it was a minimal bother, but I don't suggest staying here more than one night and definitely not for families and those accustomed to more elevated standards of accommodation.  My room, though, did have a small fridge and microwave.  Rooms are interior and there is covered parking in the rear. A small breakfast is available in the AM, but seating is limited.  I ate while sitting on the curb outside the entrance. And not much for restaurant eating nearby except for the fast food adjacent.  There's a small pool for the occasional extraordinarily hot summer day. On another downside, my TV got a relatively small number of channels. When I Iooked at the motel directory book on my desk for things to do and nearby addresses, many of the pages were torn out.More</t>
   </si>
   <si>
+    <t>Bizwanderer12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r144594565-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -1194,6 +1359,9 @@
     <t>Though this hotel is somewhat close to the airport, it is also close to two extremely busy streets and the rapid rail which feels obliged to blow the horn every time it goes by.  Take ear plugs, though they better be high quality.  The maintenance is poor.  Step into the elevator and the wooden paneling is marred from someone running a key up and down it or something...no bother to refinish it.  The rooms need paint and the air is stale, though it might be better than the car exhaust from the highway and busy roads.   The breakfast area was small but the food was at least typical of hotels in the price range.   At check-in and checkout, despite a reservation made on line, I had old-school paperwork to fill out by hand as if I had just walked in off the street.  I thought computers pretty much did away with that.  The parking is inadequate and because of its location, it is a real dice toss just to pull out into the insane traffic.   Won't be going there again.More</t>
   </si>
   <si>
+    <t>Reluctantfarmgirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r144241465-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -1212,6 +1380,9 @@
     <t>We were looking for an inexpensive place to stay overnight before flying out of Burbank to SeaTac. We got relatively inexpensive, but we got run down and neglected. Our travel agent recommended this place, saying it was clean, and "within walking distance from the airport." NO WAY. I'm only assuming the agent was never there. It was not clean, it was not within walking distance. First off, Quality Inn did not have our reservation and we had to stand in the shabby waiting area for about 15 minutes waiting for people to call back and forth to confirm. The office clerk was not happy to be working there, and even said so. The carpeting in the room was dismal, the bathroom sink ONLY had hot water - very very hot. The furnishings made us laugh. 3 chairs, all mismatched that looked exactly like they went to Salvation Army and got what they could find.The dressers and desk drawers were all missing their drawer pulls, and they also looked like Salvation Army finds. We couldn't wait around for the complimentary breakfast because of our early flight, but judging from the rest of the room and hotel, we didn't miss anything.Oh, and if that wasn't enough, Amtrak ran right by the hotel.More</t>
   </si>
   <si>
+    <t>Sssscc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r142569310-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -1227,6 +1398,9 @@
     <t xml:space="preserve">Checked in because convent from work meeting would take place. The beginning I checked in I knew it was a mistake. The hotel manager is extremely rude and has an attitude issue. He feels as if he can talk to you anyway he wants. Room has bad odor, tv doesn't work, wall bubbles and peeling. Next morning at breakfast found hair in the food. Disgusting and so not worth the 110 a night. Save yourself the stress and money . Horrible horrible experience </t>
   </si>
   <si>
+    <t>Cent A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r137014081-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -1248,6 +1422,9 @@
     <t>The title says it all. The pile of old mattresses in the carpark marked as "hazardous" should have been a warning to me, but I wasn't alert enough.I guess I'll be one of the first to die in those horror movies for not seeing the warning signs. The place was cheap so I was expecting a pretty basic motel, but nothing prepared me for the bed bugs that ate me alive. I usually can't be bothered complaining on these sites, but this was a bad enough experience for me to warn people to stay away. I have since carried these lovely blood sucking creatures back to my country where they are totally unheard of. We had to fumigate the whole house. Maybe I was just unlucky and it was an isolated incident so I'm not saying the whole place is infested, but just be warned that there were bed bugs and I was bitten. a lot. For the record I slept really well, just woke up in the morning covered in bites. Thought it was fleas until I got home and found a bug in my luggage.As a parting note, the hotel is very excellently located, a stones throw from a major road, major motorway and rail line. The air port is down the road and flies conveniently overhead...More</t>
   </si>
   <si>
+    <t>Miranda M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r136837511-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -1266,6 +1443,9 @@
     <t>DO NOT STAY AT THIS PLACE!!! I booked a room using my rewards points. I was lead to believe this establishment was 3 out of 5 stars (via the rewards site AND the Quality Inn's website). We were in town for an art showing and basically just need a room for the night. We arrived with a friend around 6p. My husband and I stayed in Room 331, our friend was in Room 206. Once my husband and I checked into our room I was immediately discouraged, the floors were covered in black stains. I was afraid to take my shoes off!! The wall outlets did not have covers and the bed spread was covered with holes and stains. The wall paper was bubbled and separating from the wall. We didn't even spend 10 minutes in the room when we first checked in, literally dropped our bags and left for the art show. We returned with our friend around 2am, there was a different person on staff who was rude just like the clerk who checked us in. I was hesitant to sleep under the covers because the condition of the room was so poor but since I used my rewards points and didn't have the money to go elsewhere, we sucked it up and slept on the bed. I had a hard time sleeping due to the mold smell. In the morning we found out that our friend's room...DO NOT STAY AT THIS PLACE!!! I booked a room using my rewards points. I was lead to believe this establishment was 3 out of 5 stars (via the rewards site AND the Quality Inn's website). We were in town for an art showing and basically just need a room for the night. We arrived with a friend around 6p. My husband and I stayed in Room 331, our friend was in Room 206. Once my husband and I checked into our room I was immediately discouraged, the floors were covered in black stains. I was afraid to take my shoes off!! The wall outlets did not have covers and the bed spread was covered with holes and stains. The wall paper was bubbled and separating from the wall. We didn't even spend 10 minutes in the room when we first checked in, literally dropped our bags and left for the art show. We returned with our friend around 2am, there was a different person on staff who was rude just like the clerk who checked us in. I was hesitant to sleep under the covers because the condition of the room was so poor but since I used my rewards points and didn't have the money to go elsewhere, we sucked it up and slept on the bed. I had a hard time sleeping due to the mold smell. In the morning we found out that our friend's room was covered in mold, when he asked to move to another room the front desk clerk became irate and called the cops. Apparently the cops are called out to this hotel A LOT and they will be of NO HELP since it's "private property and the employees can do whatever they want". This place is a hazard!! I've called the Los Angeles Public Health Dept. and have already filed a formal complaint with the Better Business Bureau! Save yourself the stress and money loss!!! Oh and they are right next to the rail road and YES the trains do come through at 2-3 in the morning blaring their horns!More</t>
   </si>
   <si>
+    <t>shoppingqueen429</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r136582243-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -1287,6 +1467,9 @@
     <t>Read the reviews and really did not want to stay here but there was a family emergency and there were 3 couples that needed rooms and someone in the group was cheap.  I checked the room to see if the sheets and bathrooms were clean and they were.  However, the room was really in need of maintenance.  Check in was quick and friendly but that is the only thing this place has going for it.  Good thing is, we only had to stay in the room 3 hrs.  Unless this is your only option, vs sleeping in your car, you need to go somewhere else.  For the money, this was a bust!More</t>
   </si>
   <si>
+    <t>PanditAnil</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r134325116-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -1302,6 +1485,9 @@
     <t>I have stayed here several times and each time the desk staff was very helpful, rooms were clean, everything was working as supposed to, breakfast was excellent and in the same lot as the hotel is a jack in the box with 24hr drive thru. Its just off 5fwy so easy to get everywhere. I would definately stay here again and highly recommend it for the price!!</t>
   </si>
   <si>
+    <t>Cobemvp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r134246510-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -1317,6 +1503,9 @@
     <t>We stayed there for the 4th of July holiday and if you are looking for convenience, this is the place you want to be. Their room was spacious and we love their complimentary breakfast was excellent. Right next door is a fastfood and right across is a gas station. It's only few minutes away from Universal Studio Hollywood and the Hollywood Sign. My family and I had a great time here. All the workers, especially the manager, were friendly. Thank you for your awesome service :)</t>
   </si>
   <si>
+    <t>gobs01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r134118529-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -1332,6 +1521,9 @@
     <t>I stayed two weeks there. I would definitely stay here again. I read so many great reviews here on trip advisor and decided to book this hotel. I'm sure glad I did! All of the fabulous reviews are true! Excellent beds!! Lovely atmosphere, comfortable and very clean rooms, attention to details, good quality complimentary toiletries, coffee, tea and microwave, fridge in room. The breakfast is GREAT! The evening reception guy is very good (Johnny). Staff is warm, friendly and helpful. Parking, WiFi &amp; shuttle service are free.</t>
   </si>
   <si>
+    <t>Shaun S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r130481502-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -1350,6 +1542,9 @@
     <t>May 2012</t>
   </si>
   <si>
+    <t>grapape</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r130410349-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -1365,6 +1560,9 @@
     <t>front desk personel was not helpful didn't know her job. The room was dingy , noisy and other guests were knocking on our door till I put the do not disturbe sign out it was cheap but it showed . The T.V. channels were few and far between.</t>
   </si>
   <si>
+    <t>marinw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r130016629-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -1383,6 +1581,9 @@
     <t>April 2012</t>
   </si>
   <si>
+    <t>bugnurse56</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r126237682-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -1404,6 +1605,9 @@
     <t>I had to stay in the SFV after one class, before beginning another:this was a 10 hour stay. The king bed was sumptuous, shower excellent. Towels a little thin. Stayed in this inn in Sept. and noise not a factor then or now. Despite being next to I-5, Burbank Airport and the Train Station-an advantage!- noise was minimal. After around 10:00 pm no planes are taking off, and there is one early am train around 6:00. There are a few loud trucks- no jake brakes or beeping. Thanks, neighbors!  Another benefit is the kind staff. Breakfast is at 06:30 but a hungry traveler could beg some coffee at 06:15 am. Coffee in the room tasted of plastic.  A further benefit is some fast food next door in case of need. A very nice hotel for the price and convenience.More</t>
   </si>
   <si>
+    <t>Jeralyn H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r125345487-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -1437,6 +1641,9 @@
     <t>I've stayed here many time's in the past , great location ! excellent continental breakfast . Staff are very friendly &amp; willing to assist in anyway possible. Comfortable Rooms.</t>
   </si>
   <si>
+    <t>babycakes0952</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r124024598-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -1452,6 +1659,9 @@
     <t>The rooms are a little small, but very clean. Service was friendly and very helpful. This hotel was the best price for the area. Right down the street from the airport and great continental breakfast.</t>
   </si>
   <si>
+    <t>421DesertRat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r123946659-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -1488,6 +1698,9 @@
     <t>This was my fourth stay with them and each visit was a smooth stay with no complaints. The rooms were clean, wifi worked in room at good speed throughout, breakfast spread was good with hot items, reception staff were excellent with directions room service was prompt when I requested it and the rate was excellent thru choicehotels.com. I would have given 5 star for this property except for the fact that breakfast area was small and tended to get crowded during busy morning hours. Overall very good value for money. Will stay here when I am next in town!!</t>
   </si>
   <si>
+    <t>KT1999</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r123255613-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -1503,6 +1716,9 @@
     <t>My husband and I only needed a place to sleep for one night before we headed home.  The room was nothing fancy, but comfortable and quaint.  The staff was very polite--calling after a few minutes of being in the room to make sure our room was acceptable.</t>
   </si>
   <si>
+    <t>shouse57123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r122775007-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -1524,6 +1740,9 @@
     <t>I have been staying here twice a year for the last 5 years for visit my family. It has been such a good experience. The rooms are beautifully. Hotel staffs are rock. I always get manager special discount from Mr. Patel. To qualify this discount I don’t get choice points since this year. Manager said he couldn't go against the choice policy. He can purchase points from his Owen expense and offered me free points. I said I don’t mind for choice points because I review rates in Burbank hotel. This is the only hotel I found cheap. I like this place because I feel like I am at home. Their staff and manager always threat me, as I am there family member. This place is little noises from outside but I always get quiet room. I will stay with them continue…More</t>
   </si>
   <si>
+    <t>Sadie T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r122695774-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -1539,6 +1758,9 @@
     <t>We booked this hotel when we traveled to California for the Rose Bowl. Somehow there was confusion when I booked about the number of people but the staff was helpful in putting us in a room that would fit us all, without breaking our budget. The room was simple and clean. It was a little noisy but was not unbearable. The breakfast in the morning had a good variety. You get what you pay for and over all we had a fine experience.</t>
   </si>
   <si>
+    <t>tina0604</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r120309808-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -1557,6 +1779,9 @@
     <t>November 2011</t>
   </si>
   <si>
+    <t>66Tina</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r118680227-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -1572,6 +1797,9 @@
     <t>We got a one bedroom suite the living roomarea was a complete joke smaller then a trailer, bedroom ok the lights didn't work, it smelled. We didn't stay.  The staff was rude they didn't want to refund our money. Told them we couldn't stay due to the smell was causing me asthma problems.  When I lived in Burbank this hotel was called something else and was a hotel for drugs, every other weekend the police was there arresting people. I think its the same with a different name. DON'T STAY,  NOT SAFE.</t>
   </si>
   <si>
+    <t>billynbirdy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r115338201-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -1590,6 +1818,9 @@
     <t>December 2010</t>
   </si>
   <si>
+    <t>Francesgarcia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r76643605-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -1605,6 +1836,9 @@
     <t>Do not stay here at this hotelFor your own hard working money don't believe the video it's false advertisement. Tv is blurry, beds are hard, spa is cold, lights are out in the room, the ac takes hours to get cool, staff is rude and won't help. Be Aware once More please dnt stay here!!!</t>
   </si>
   <si>
+    <t>dadandtad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r71954380-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -1623,6 +1857,9 @@
     <t>July 2010</t>
   </si>
   <si>
+    <t>travel02568</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r71084995-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -1638,6 +1875,9 @@
     <t>I never write reviews for hotel stays but I had to for this hotel to save the head ache and saftey of others.  I travel all of the time and my stay here  was by far the worst experience I have ever had.  A lot of shady people in the parking lot, I found a used condom in the stair case, very rude staff, the entire hotel smells like smoke, it is loud and out dated.  And for 120.00 a night!  Give me a break you are better off at a homeless shelter.</t>
   </si>
   <si>
+    <t>spork33</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r23635757-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -1659,6 +1899,9 @@
     <t>We put one of our drivers up at the Quality Inn Burbank for one night.  We called in a credit card before he arrived and had it pre-approved.  When he tried to check out in the morning they told him they could not accept it.  He tried to use the emergency credit card we have him carry.  The would not accept that either.I called them with my personal credit card and they told me I had to FAX them a copy.  I asked if I could email a copy and was told NO.  I drove to the office and spent the next hour and a half FAX'ing many copies to them.  They wouldn't accept any of them because they said the copy quality was too poor - however, our driver was allowed to see the FAX's they had accepted, and told me they were definitely worse.  By this time the manager (Johnny) had become abusive, and would no longer take my calls.  Add this to the poor quality of the hotel, and it adds up to a hotel I would never again consider or recommend.More</t>
   </si>
   <si>
+    <t>CaliforniaHereICome</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r6622296-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -1680,6 +1923,9 @@
     <t>We stayed here in April 2006 cause we had tickets to the Ellen Degeneres show and we wanted to be close by the studio.  It was the worst hotel I've ever stayed in and I'm not that picky.We were put in one room that smelled so badly of smoke that we asked to be moved.  The woman at the front desk gave us keys to 3 other rooms and we checked them all out.  They all smelled horribly of stale smoke and were dirty - but we chose the third one as it seemed the cleanest and it was late - we had driven for hours and just wanted to go to bed.Once we were in the room we realized it was filthy - it was the strangest set up - when you entered the room you were in the washroom - how convenient.  There was a giant hole in the wall between the bedroom and bathroom - it had been stuffed full of towels.  The bathroom was gross and moldy and smelled bad.I can't even tell you how disgusting this place was.  Thinking back on it we should have packed up and left.   I would not recommend this hotel to ANYONE.More</t>
   </si>
   <si>
+    <t>fromdelmar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r5471654-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -1695,6 +1941,9 @@
     <t>Room was typical for the low end Quality Inns that we have stayed in; with adequate housekeeping.Pros-- about one mile from Burbank Airport-- no airport noise-- airport shuttle starting at 7:00 a.m.-- conveniently located... if you have a car...shops and restaurants within 5-minute drive-- no problem with front desk which was 24/7 and provided on-time wake up call-- free HBO-- refrigerator and microwaveCons-- freeway noise-- railroad noise-- limited walking area...only close restaurant is Jack-in-the-Box-- fairly small motel type room-- except for HBO and TNT, only a few broadcast channels available I should mention that the a/c was adequate and blocked out much of the traffic and railroad noise.</t>
   </si>
   <si>
+    <t>joesorce</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r2287380-Quality_Inn-Burbank_California.html</t>
   </si>
   <si>
@@ -1708,6 +1957,9 @@
   </si>
   <si>
     <t>As Quality Inns go, this one is definitely on the less-attractive side.  Formerly the "Buena Vista Inn", this motel was built with thin walls and has a very crowded, small parking area.  The neighborhood is on the less-than-desirable side though improving.  There is a gas station and a Jack in the Box next door.   Probably one of the worst choices in the Burbank area.</t>
+  </si>
+  <si>
+    <t>sulphur</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r1742022-Quality_Inn-Burbank_California.html</t>
@@ -1732,6 +1984,9 @@
 I thought I had reserved a non-smoking suite for 4 people, but got a smoking room. This may have been my fault in not reading the fine print on the web when I made the reservation. We arrived late at night, and I was not able to switch to a non-smoking room.
 The sofa bed in the suite bedroom had a sagging, dirty mattress. I had to move the sofa so I could put the mattress on the floor (that was the only way I knew I would be able to sleep on such a soft mattress). I found all kinds of trash under the sofa. The furniture in the bedroom was in very poor shape, with lots of scratches and some big ugly metal brackets holding the legs on a table. We found ants crawling throughout the room. The freeway and train noise made it difficult to sleep. I had breakfast in the lobby. I opened the fridge to get some milk. The fridge had obviously not been cleaned for days. Hallways throughout the hotel were littered with paper.
 I talked to the front desk about all the problems I had, and requested at least a partial refund. I was asked to wait until the manager arrived. When the manager arrived in the morning, I made the same request from him. He said only the owner could authorize it and he...I had a bad experience at this hotel...I thought I had reserved a non-smoking suite for 4 people, but got a smoking room. This may have been my fault in not reading the fine print on the web when I made the reservation. We arrived late at night, and I was not able to switch to a non-smoking room.The sofa bed in the suite bedroom had a sagging, dirty mattress. I had to move the sofa so I could put the mattress on the floor (that was the only way I knew I would be able to sleep on such a soft mattress). I found all kinds of trash under the sofa. The furniture in the bedroom was in very poor shape, with lots of scratches and some big ugly metal brackets holding the legs on a table. We found ants crawling throughout the room. The freeway and train noise made it difficult to sleep. I had breakfast in the lobby. I opened the fridge to get some milk. The fridge had obviously not been cleaned for days. Hallways throughout the hotel were littered with paper.I talked to the front desk about all the problems I had, and requested at least a partial refund. I was asked to wait until the manager arrived. When the manager arrived in the morning, I made the same request from him. He said only the owner could authorize it and he was out of town for several days, so he took my phone number so the owner could call me. It's been almost two weeks, and I still haven't heard from him.I had planned on staying at this hotel for four nights, but checked out after the first night and found a nice room for a good price at the Ramada Inn nearby.More</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32123-d84426-r1623258-Quality_Inn-Burbank_California.html</t>
@@ -2254,43 +2509,47 @@
       <c r="A2" t="n">
         <v>37589</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2304,50 +2563,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>37589</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2365,41 +2628,45 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>37589</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
@@ -2418,50 +2685,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>37589</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2475,50 +2746,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>37589</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2532,50 +2807,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>37589</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2589,50 +2868,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>37589</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2646,50 +2929,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>37589</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2703,50 +2990,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>37589</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="L10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2764,50 +3055,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>37589</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="J11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="K11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="L11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -2827,50 +3122,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>37589</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="J12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="K12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="L12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="O12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P12" t="n">
         <v>2</v>
@@ -2888,50 +3187,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>37589</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>129</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="J13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="K13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="O13" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P13" t="n">
         <v>3</v>
@@ -2951,50 +3254,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>37589</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>136</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="J14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="K14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="L14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="O14" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -3012,50 +3319,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>37589</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>143</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="J15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="K15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="L15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="n">
         <v>2</v>
@@ -3075,50 +3386,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>37589</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>150</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="J16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="K16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="L16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3132,50 +3447,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>37589</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>157</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="J17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="K17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="L17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="O17" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3189,50 +3508,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>37589</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>164</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="J18" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="K18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="L18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="O18" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -3252,50 +3575,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>37589</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>171</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="J19" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="K19" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="L19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3309,50 +3636,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>37589</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>177</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="J20" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="K20" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="L20" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="O20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3366,50 +3697,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>37589</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>184</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="J21" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="K21" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="L21" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="O21" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -3429,50 +3764,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>37589</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>191</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="J22" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="K22" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="L22" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="O22" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3490,50 +3829,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>37589</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>197</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="J23" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="K23" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="L23" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="O23" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3547,50 +3890,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>37589</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>203</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="J24" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="K24" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="L24" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="O24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3604,50 +3951,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>37589</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>210</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="J25" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="K25" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="O25" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -3665,50 +4016,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>37589</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>217</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="J26" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="K26" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="L26" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="O26" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -3728,50 +4083,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>37589</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>224</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="J27" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="K27" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="L27" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="O27" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P27" t="n">
         <v>4</v>
@@ -3791,50 +4150,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>37589</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>231</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="J28" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="K28" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="L28" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="O28" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3854,50 +4217,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>37589</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>238</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="J29" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="K29" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="L29" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="O29" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3915,50 +4282,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>37589</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>246</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="J30" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="K30" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="L30" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="O30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P30" t="n">
         <v>1</v>
@@ -3982,50 +4353,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>37589</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>252</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="J31" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="K31" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="L31" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -4045,50 +4420,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>37589</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>259</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="J32" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="K32" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="L32" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="O32" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4102,50 +4481,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>37589</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>265</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="J33" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="K33" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="L33" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="O33" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P33" t="n">
         <v>1</v>
@@ -4165,50 +4548,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>37589</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>273</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="J34" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="K34" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="L34" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="O34" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P34" t="n">
         <v>2</v>
@@ -4228,41 +4615,45 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>37589</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>279</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="J35" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="K35" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="L35" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
@@ -4291,50 +4682,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>37589</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>286</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="J36" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="K36" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="L36" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="M36" t="n">
         <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="n">
         <v>2</v>
@@ -4354,50 +4749,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>37589</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>294</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="J37" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="K37" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="L37" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4411,50 +4810,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>37589</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>300</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="J38" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="K38" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="L38" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="M38" t="n">
         <v>2</v>
       </c>
       <c r="N38" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="O38" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4472,50 +4875,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>37589</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>307</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="J39" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="K39" t="s">
-        <v>273</v>
+        <v>311</v>
       </c>
       <c r="L39" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
@@ -4533,50 +4940,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>275</v>
+        <v>313</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>37589</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>314</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="J40" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="K40" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="L40" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="O40" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="n">
@@ -4596,50 +5007,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>37589</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>321</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>282</v>
+        <v>322</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>283</v>
+        <v>323</v>
       </c>
       <c r="J41" t="s">
-        <v>284</v>
+        <v>324</v>
       </c>
       <c r="K41" t="s">
-        <v>285</v>
+        <v>325</v>
       </c>
       <c r="L41" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>287</v>
+        <v>327</v>
       </c>
       <c r="O41" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P41" t="n">
         <v>1</v>
@@ -4663,50 +5078,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>288</v>
+        <v>328</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>37589</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>329</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>290</v>
+        <v>331</v>
       </c>
       <c r="J42" t="s">
-        <v>291</v>
+        <v>332</v>
       </c>
       <c r="K42" t="s">
-        <v>292</v>
+        <v>333</v>
       </c>
       <c r="L42" t="s">
-        <v>293</v>
+        <v>334</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="O42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
@@ -4730,50 +5149,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>295</v>
+        <v>336</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>37589</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>337</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>296</v>
+        <v>338</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>297</v>
+        <v>339</v>
       </c>
       <c r="J43" t="s">
-        <v>298</v>
+        <v>340</v>
       </c>
       <c r="K43" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
       <c r="L43" t="s">
-        <v>300</v>
+        <v>342</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>301</v>
+        <v>343</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4797,48 +5220,52 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>300</v>
+        <v>342</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>37589</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>344</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>302</v>
+        <v>345</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>303</v>
+        <v>346</v>
       </c>
       <c r="J44" t="s">
-        <v>304</v>
+        <v>347</v>
       </c>
       <c r="K44" t="s"/>
       <c r="L44" t="s">
-        <v>305</v>
+        <v>348</v>
       </c>
       <c r="M44" t="n">
         <v>2</v>
       </c>
       <c r="N44" t="s">
-        <v>306</v>
+        <v>349</v>
       </c>
       <c r="O44" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P44" t="n">
         <v>1</v>
@@ -4854,50 +5281,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>307</v>
+        <v>350</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>37589</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>351</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>308</v>
+        <v>352</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>309</v>
+        <v>353</v>
       </c>
       <c r="J45" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="K45" t="s">
-        <v>311</v>
+        <v>355</v>
       </c>
       <c r="L45" t="s">
-        <v>312</v>
+        <v>356</v>
       </c>
       <c r="M45" t="n">
         <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="O45" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P45" t="n">
         <v>2</v>
@@ -4919,56 +5350,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>314</v>
+        <v>358</v>
       </c>
       <c r="X45" t="s">
-        <v>315</v>
+        <v>359</v>
       </c>
       <c r="Y45" t="s">
-        <v>316</v>
+        <v>360</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>37589</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>361</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>317</v>
+        <v>362</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>318</v>
+        <v>363</v>
       </c>
       <c r="J46" t="s">
-        <v>319</v>
+        <v>364</v>
       </c>
       <c r="K46" t="s">
-        <v>320</v>
+        <v>365</v>
       </c>
       <c r="L46" t="s">
-        <v>321</v>
+        <v>366</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>322</v>
+        <v>367</v>
       </c>
       <c r="O46" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P46" t="n">
         <v>3</v>
@@ -4992,50 +5427,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>321</v>
+        <v>366</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>37589</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>368</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>323</v>
+        <v>369</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>324</v>
+        <v>370</v>
       </c>
       <c r="J47" t="s">
-        <v>325</v>
+        <v>371</v>
       </c>
       <c r="K47" t="s">
-        <v>326</v>
+        <v>372</v>
       </c>
       <c r="L47" t="s">
-        <v>327</v>
+        <v>373</v>
       </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>328</v>
+        <v>374</v>
       </c>
       <c r="O47" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P47" t="n">
         <v>1</v>
@@ -5059,50 +5498,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>329</v>
+        <v>375</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>37589</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>376</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>330</v>
+        <v>377</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>331</v>
+        <v>378</v>
       </c>
       <c r="J48" t="s">
-        <v>332</v>
+        <v>379</v>
       </c>
       <c r="K48" t="s">
-        <v>333</v>
+        <v>380</v>
       </c>
       <c r="L48" t="s">
-        <v>334</v>
+        <v>381</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>335</v>
+        <v>382</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="n">
         <v>3</v>
@@ -5126,50 +5569,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>334</v>
+        <v>381</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>37589</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>383</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>336</v>
+        <v>384</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>337</v>
+        <v>385</v>
       </c>
       <c r="J49" t="s">
-        <v>338</v>
+        <v>386</v>
       </c>
       <c r="K49" t="s">
-        <v>339</v>
+        <v>387</v>
       </c>
       <c r="L49" t="s">
-        <v>340</v>
+        <v>388</v>
       </c>
       <c r="M49" t="n">
         <v>2</v>
       </c>
       <c r="N49" t="s">
-        <v>335</v>
+        <v>382</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="n">
         <v>3</v>
@@ -5193,41 +5640,45 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>341</v>
+        <v>389</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>37589</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>390</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>342</v>
+        <v>391</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>343</v>
+        <v>392</v>
       </c>
       <c r="J50" t="s">
-        <v>344</v>
+        <v>393</v>
       </c>
       <c r="K50" t="s">
-        <v>345</v>
+        <v>394</v>
       </c>
       <c r="L50" t="s">
-        <v>346</v>
+        <v>395</v>
       </c>
       <c r="M50" t="n">
         <v>1</v>
@@ -5256,50 +5707,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>346</v>
+        <v>395</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>37589</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>396</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>347</v>
+        <v>397</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>348</v>
+        <v>398</v>
       </c>
       <c r="J51" t="s">
-        <v>349</v>
+        <v>399</v>
       </c>
       <c r="K51" t="s">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L51" t="s">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
         <v>4</v>
@@ -5323,50 +5778,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>37589</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>404</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>354</v>
+        <v>405</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>355</v>
+        <v>406</v>
       </c>
       <c r="J52" t="s">
-        <v>356</v>
+        <v>407</v>
       </c>
       <c r="K52" t="s">
-        <v>357</v>
+        <v>408</v>
       </c>
       <c r="L52" t="s">
-        <v>358</v>
+        <v>409</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>359</v>
+        <v>410</v>
       </c>
       <c r="O52" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5390,41 +5849,45 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>358</v>
+        <v>409</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>37589</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>411</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>360</v>
+        <v>412</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>361</v>
+        <v>413</v>
       </c>
       <c r="J53" t="s">
-        <v>362</v>
+        <v>414</v>
       </c>
       <c r="K53" t="s">
-        <v>363</v>
+        <v>415</v>
       </c>
       <c r="L53" t="s">
-        <v>364</v>
+        <v>416</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
@@ -5453,50 +5916,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>364</v>
+        <v>416</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>37589</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>417</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>365</v>
+        <v>418</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>366</v>
+        <v>419</v>
       </c>
       <c r="J54" t="s">
-        <v>367</v>
+        <v>420</v>
       </c>
       <c r="K54" t="s">
-        <v>368</v>
+        <v>421</v>
       </c>
       <c r="L54" t="s">
-        <v>369</v>
+        <v>422</v>
       </c>
       <c r="M54" t="n">
         <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>370</v>
+        <v>423</v>
       </c>
       <c r="O54" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P54" t="n">
         <v>3</v>
@@ -5520,50 +5987,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>369</v>
+        <v>422</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>37589</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>424</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>372</v>
+        <v>426</v>
       </c>
       <c r="J55" t="s">
-        <v>373</v>
+        <v>427</v>
       </c>
       <c r="K55" t="s">
-        <v>374</v>
+        <v>428</v>
       </c>
       <c r="L55" t="s">
-        <v>375</v>
+        <v>429</v>
       </c>
       <c r="M55" t="n">
         <v>2</v>
       </c>
       <c r="N55" t="s">
-        <v>376</v>
+        <v>430</v>
       </c>
       <c r="O55" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -5577,50 +6048,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>377</v>
+        <v>431</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>37589</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>432</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>378</v>
+        <v>433</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>379</v>
+        <v>434</v>
       </c>
       <c r="J56" t="s">
-        <v>380</v>
+        <v>435</v>
       </c>
       <c r="K56" t="s">
-        <v>381</v>
+        <v>436</v>
       </c>
       <c r="L56" t="s">
-        <v>382</v>
+        <v>437</v>
       </c>
       <c r="M56" t="n">
         <v>2</v>
       </c>
       <c r="N56" t="s">
-        <v>383</v>
+        <v>438</v>
       </c>
       <c r="O56" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P56" t="n">
         <v>2</v>
@@ -5644,50 +6119,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>384</v>
+        <v>439</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>37589</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>440</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>385</v>
+        <v>441</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>386</v>
+        <v>442</v>
       </c>
       <c r="J57" t="s">
-        <v>387</v>
+        <v>443</v>
       </c>
       <c r="K57" t="s">
-        <v>388</v>
+        <v>444</v>
       </c>
       <c r="L57" t="s">
-        <v>389</v>
+        <v>445</v>
       </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>383</v>
+        <v>438</v>
       </c>
       <c r="O57" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P57" t="n">
         <v>3</v>
@@ -5711,41 +6190,45 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>390</v>
+        <v>446</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>37589</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>447</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>391</v>
+        <v>448</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>392</v>
+        <v>449</v>
       </c>
       <c r="J58" t="s">
-        <v>393</v>
+        <v>450</v>
       </c>
       <c r="K58" t="s">
-        <v>394</v>
+        <v>451</v>
       </c>
       <c r="L58" t="s">
-        <v>395</v>
+        <v>452</v>
       </c>
       <c r="M58" t="n">
         <v>1</v>
@@ -5774,50 +6257,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>395</v>
+        <v>452</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>37589</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>453</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>396</v>
+        <v>454</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>397</v>
+        <v>455</v>
       </c>
       <c r="J59" t="s">
-        <v>398</v>
+        <v>456</v>
       </c>
       <c r="K59" t="s">
-        <v>399</v>
+        <v>457</v>
       </c>
       <c r="L59" t="s">
-        <v>400</v>
+        <v>458</v>
       </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
       <c r="N59" t="s">
-        <v>401</v>
+        <v>459</v>
       </c>
       <c r="O59" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P59" t="n">
         <v>3</v>
@@ -5841,50 +6328,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>402</v>
+        <v>460</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>37589</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>461</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>403</v>
+        <v>462</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>404</v>
+        <v>463</v>
       </c>
       <c r="J60" t="s">
-        <v>405</v>
+        <v>464</v>
       </c>
       <c r="K60" t="s">
-        <v>406</v>
+        <v>465</v>
       </c>
       <c r="L60" t="s">
-        <v>407</v>
+        <v>466</v>
       </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
       <c r="N60" t="s">
-        <v>401</v>
+        <v>459</v>
       </c>
       <c r="O60" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P60" t="n">
         <v>1</v>
@@ -5908,50 +6399,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>408</v>
+        <v>467</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>37589</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>468</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>409</v>
+        <v>469</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>410</v>
+        <v>470</v>
       </c>
       <c r="J61" t="s">
-        <v>411</v>
+        <v>471</v>
       </c>
       <c r="K61" t="s">
-        <v>412</v>
+        <v>472</v>
       </c>
       <c r="L61" t="s">
-        <v>413</v>
+        <v>473</v>
       </c>
       <c r="M61" t="n">
         <v>2</v>
       </c>
       <c r="N61" t="s">
-        <v>414</v>
+        <v>474</v>
       </c>
       <c r="O61" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P61" t="n">
         <v>1</v>
@@ -5975,50 +6470,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>415</v>
+        <v>475</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>37589</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>476</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>416</v>
+        <v>477</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>417</v>
+        <v>478</v>
       </c>
       <c r="J62" t="s">
-        <v>418</v>
+        <v>479</v>
       </c>
       <c r="K62" t="s">
-        <v>419</v>
+        <v>480</v>
       </c>
       <c r="L62" t="s">
-        <v>420</v>
+        <v>481</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>414</v>
+        <v>474</v>
       </c>
       <c r="O62" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6042,50 +6541,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>420</v>
+        <v>481</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>37589</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>482</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>421</v>
+        <v>483</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>422</v>
+        <v>484</v>
       </c>
       <c r="J63" t="s">
-        <v>423</v>
+        <v>485</v>
       </c>
       <c r="K63" t="s">
-        <v>424</v>
+        <v>486</v>
       </c>
       <c r="L63" t="s">
-        <v>425</v>
+        <v>487</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>414</v>
+        <v>474</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6109,50 +6612,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>425</v>
+        <v>487</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>37589</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>488</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>426</v>
+        <v>489</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>427</v>
+        <v>490</v>
       </c>
       <c r="J64" t="s">
-        <v>428</v>
+        <v>491</v>
       </c>
       <c r="K64" t="s">
-        <v>429</v>
+        <v>492</v>
       </c>
       <c r="L64" t="s">
-        <v>430</v>
+        <v>493</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>414</v>
+        <v>474</v>
       </c>
       <c r="O64" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6176,50 +6683,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>430</v>
+        <v>493</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>37589</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>494</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>431</v>
+        <v>495</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>432</v>
+        <v>496</v>
       </c>
       <c r="J65" t="s">
-        <v>433</v>
+        <v>497</v>
       </c>
       <c r="K65" t="s">
-        <v>434</v>
+        <v>498</v>
       </c>
       <c r="L65" t="s">
-        <v>435</v>
+        <v>499</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>436</v>
+        <v>500</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6243,50 +6754,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>435</v>
+        <v>499</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>37589</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>501</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>437</v>
+        <v>502</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>438</v>
+        <v>503</v>
       </c>
       <c r="J66" t="s">
-        <v>439</v>
+        <v>504</v>
       </c>
       <c r="K66" t="s">
-        <v>440</v>
+        <v>505</v>
       </c>
       <c r="L66" t="s">
-        <v>441</v>
+        <v>506</v>
       </c>
       <c r="M66" t="n">
         <v>2</v>
       </c>
       <c r="N66" t="s">
-        <v>436</v>
+        <v>500</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="n">
         <v>2</v>
@@ -6310,50 +6825,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>441</v>
+        <v>506</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>37589</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>507</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>442</v>
+        <v>508</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>443</v>
+        <v>509</v>
       </c>
       <c r="J67" t="s">
-        <v>444</v>
+        <v>510</v>
       </c>
       <c r="K67" t="s">
-        <v>445</v>
+        <v>511</v>
       </c>
       <c r="L67" t="s">
-        <v>446</v>
+        <v>512</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>447</v>
+        <v>513</v>
       </c>
       <c r="O67" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -6377,50 +6896,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>446</v>
+        <v>512</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>37589</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>514</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>448</v>
+        <v>515</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>449</v>
+        <v>516</v>
       </c>
       <c r="J68" t="s">
-        <v>450</v>
+        <v>517</v>
       </c>
       <c r="K68" t="s">
-        <v>451</v>
+        <v>518</v>
       </c>
       <c r="L68" t="s">
-        <v>452</v>
+        <v>519</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>453</v>
+        <v>520</v>
       </c>
       <c r="O68" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -6444,50 +6967,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>454</v>
+        <v>521</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>37589</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>522</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>455</v>
+        <v>523</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>456</v>
+        <v>524</v>
       </c>
       <c r="J69" t="s">
-        <v>457</v>
+        <v>525</v>
       </c>
       <c r="K69" t="s">
-        <v>458</v>
+        <v>526</v>
       </c>
       <c r="L69" t="s">
-        <v>459</v>
+        <v>527</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>460</v>
+        <v>528</v>
       </c>
       <c r="O69" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -6511,50 +7038,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>459</v>
+        <v>527</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>37589</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>404</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>461</v>
+        <v>529</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>462</v>
+        <v>530</v>
       </c>
       <c r="J70" t="s">
-        <v>463</v>
+        <v>531</v>
       </c>
       <c r="K70" t="s">
-        <v>464</v>
+        <v>532</v>
       </c>
       <c r="L70" t="s">
-        <v>465</v>
+        <v>533</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>460</v>
+        <v>528</v>
       </c>
       <c r="O70" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -6578,41 +7109,45 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>465</v>
+        <v>533</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>37589</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>534</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>466</v>
+        <v>535</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>467</v>
+        <v>536</v>
       </c>
       <c r="J71" t="s">
-        <v>468</v>
+        <v>537</v>
       </c>
       <c r="K71" t="s">
-        <v>469</v>
+        <v>538</v>
       </c>
       <c r="L71" t="s">
-        <v>470</v>
+        <v>539</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
@@ -6641,50 +7176,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>470</v>
+        <v>539</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>37589</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>540</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>471</v>
+        <v>541</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>472</v>
+        <v>542</v>
       </c>
       <c r="J72" t="s">
-        <v>473</v>
+        <v>543</v>
       </c>
       <c r="K72" t="s">
-        <v>474</v>
+        <v>544</v>
       </c>
       <c r="L72" t="s">
-        <v>475</v>
+        <v>545</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>476</v>
+        <v>546</v>
       </c>
       <c r="O72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P72" t="n">
         <v>4</v>
@@ -6708,50 +7247,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>477</v>
+        <v>547</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>37589</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>476</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>478</v>
+        <v>548</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>479</v>
+        <v>549</v>
       </c>
       <c r="J73" t="s">
-        <v>480</v>
+        <v>550</v>
       </c>
       <c r="K73" t="s">
-        <v>481</v>
+        <v>551</v>
       </c>
       <c r="L73" t="s">
-        <v>482</v>
+        <v>552</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>476</v>
+        <v>546</v>
       </c>
       <c r="O73" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -6775,50 +7318,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>482</v>
+        <v>552</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>37589</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>553</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>483</v>
+        <v>554</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>484</v>
+        <v>555</v>
       </c>
       <c r="J74" t="s">
-        <v>485</v>
+        <v>556</v>
       </c>
       <c r="K74" t="s">
-        <v>486</v>
+        <v>557</v>
       </c>
       <c r="L74" t="s">
-        <v>487</v>
+        <v>558</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>476</v>
+        <v>546</v>
       </c>
       <c r="O74" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P74" t="n">
         <v>4</v>
@@ -6842,50 +7389,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>487</v>
+        <v>558</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>37589</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>559</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>488</v>
+        <v>560</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>489</v>
+        <v>561</v>
       </c>
       <c r="J75" t="s">
-        <v>490</v>
+        <v>562</v>
       </c>
       <c r="K75" t="s">
-        <v>491</v>
+        <v>563</v>
       </c>
       <c r="L75" t="s">
-        <v>492</v>
+        <v>564</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="O75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -6909,50 +7460,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>494</v>
+        <v>566</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>37589</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>567</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>495</v>
+        <v>568</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>496</v>
+        <v>569</v>
       </c>
       <c r="J76" t="s">
-        <v>497</v>
+        <v>570</v>
       </c>
       <c r="K76" t="s">
-        <v>498</v>
+        <v>571</v>
       </c>
       <c r="L76" t="s">
-        <v>499</v>
+        <v>572</v>
       </c>
       <c r="M76" t="n">
         <v>3</v>
       </c>
       <c r="N76" t="s">
-        <v>476</v>
+        <v>546</v>
       </c>
       <c r="O76" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -6976,50 +7531,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>499</v>
+        <v>572</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>37589</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>573</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>500</v>
+        <v>574</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>501</v>
+        <v>575</v>
       </c>
       <c r="J77" t="s">
-        <v>502</v>
+        <v>576</v>
       </c>
       <c r="K77" t="s">
-        <v>503</v>
+        <v>577</v>
       </c>
       <c r="L77" t="s">
-        <v>504</v>
+        <v>578</v>
       </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
       <c r="N77" t="s">
-        <v>505</v>
+        <v>579</v>
       </c>
       <c r="O77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P77" t="n">
         <v>1</v>
@@ -7043,41 +7602,45 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>504</v>
+        <v>578</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>37589</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>580</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>506</v>
+        <v>581</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>507</v>
+        <v>582</v>
       </c>
       <c r="J78" t="s">
-        <v>508</v>
+        <v>583</v>
       </c>
       <c r="K78" t="s">
-        <v>509</v>
+        <v>584</v>
       </c>
       <c r="L78" t="s">
-        <v>510</v>
+        <v>585</v>
       </c>
       <c r="M78" t="n">
         <v>1</v>
@@ -7106,50 +7669,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>510</v>
+        <v>585</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>37589</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>586</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>511</v>
+        <v>587</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>512</v>
+        <v>588</v>
       </c>
       <c r="J79" t="s">
-        <v>513</v>
+        <v>589</v>
       </c>
       <c r="K79" t="s">
-        <v>514</v>
+        <v>590</v>
       </c>
       <c r="L79" t="s">
-        <v>515</v>
+        <v>591</v>
       </c>
       <c r="M79" t="n">
         <v>3</v>
       </c>
       <c r="N79" t="s">
-        <v>516</v>
+        <v>592</v>
       </c>
       <c r="O79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P79" t="n">
         <v>3</v>
@@ -7169,41 +7736,45 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>515</v>
+        <v>591</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>37589</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>593</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>517</v>
+        <v>594</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>518</v>
+        <v>595</v>
       </c>
       <c r="J80" t="s">
-        <v>519</v>
+        <v>596</v>
       </c>
       <c r="K80" t="s">
-        <v>520</v>
+        <v>597</v>
       </c>
       <c r="L80" t="s">
-        <v>521</v>
+        <v>598</v>
       </c>
       <c r="M80" t="n">
         <v>1</v>
@@ -7232,50 +7803,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>521</v>
+        <v>598</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>37589</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>599</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>522</v>
+        <v>600</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>523</v>
+        <v>601</v>
       </c>
       <c r="J81" t="s">
-        <v>524</v>
+        <v>602</v>
       </c>
       <c r="K81" t="s">
-        <v>525</v>
+        <v>603</v>
       </c>
       <c r="L81" t="s">
-        <v>526</v>
+        <v>604</v>
       </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
       <c r="N81" t="s">
-        <v>527</v>
+        <v>605</v>
       </c>
       <c r="O81" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P81" t="n">
         <v>1</v>
@@ -7299,50 +7874,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>526</v>
+        <v>604</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>37589</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>606</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>528</v>
+        <v>607</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>529</v>
+        <v>608</v>
       </c>
       <c r="J82" t="s">
-        <v>530</v>
+        <v>609</v>
       </c>
       <c r="K82" t="s">
-        <v>531</v>
+        <v>610</v>
       </c>
       <c r="L82" t="s">
-        <v>532</v>
+        <v>611</v>
       </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
       <c r="N82" t="s">
-        <v>527</v>
+        <v>605</v>
       </c>
       <c r="O82" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P82" t="n">
         <v>1</v>
@@ -7366,50 +7945,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>532</v>
+        <v>611</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>37589</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>612</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>533</v>
+        <v>613</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>534</v>
+        <v>614</v>
       </c>
       <c r="J83" t="s">
-        <v>535</v>
+        <v>615</v>
       </c>
       <c r="K83" t="s">
-        <v>536</v>
+        <v>616</v>
       </c>
       <c r="L83" t="s">
-        <v>537</v>
+        <v>617</v>
       </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
       <c r="N83" t="s">
-        <v>538</v>
+        <v>618</v>
       </c>
       <c r="O83" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P83" t="s"/>
       <c r="Q83" t="s"/>
@@ -7423,50 +8006,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>539</v>
+        <v>619</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>37589</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>620</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>540</v>
+        <v>621</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>541</v>
+        <v>622</v>
       </c>
       <c r="J84" t="s">
-        <v>542</v>
+        <v>623</v>
       </c>
       <c r="K84" t="s">
-        <v>543</v>
+        <v>624</v>
       </c>
       <c r="L84" t="s">
-        <v>544</v>
+        <v>625</v>
       </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
       <c r="N84" t="s">
-        <v>545</v>
+        <v>626</v>
       </c>
       <c r="O84" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P84" t="n">
         <v>1</v>
@@ -7490,41 +8077,45 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>546</v>
+        <v>627</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>37589</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>628</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>547</v>
+        <v>629</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>548</v>
+        <v>630</v>
       </c>
       <c r="J85" t="s">
-        <v>549</v>
+        <v>631</v>
       </c>
       <c r="K85" t="s">
-        <v>550</v>
+        <v>632</v>
       </c>
       <c r="L85" t="s">
-        <v>551</v>
+        <v>633</v>
       </c>
       <c r="M85" t="n">
         <v>2</v>
@@ -7551,41 +8142,45 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>551</v>
+        <v>633</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>37589</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>634</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>552</v>
+        <v>635</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>553</v>
+        <v>636</v>
       </c>
       <c r="J86" t="s">
-        <v>554</v>
+        <v>637</v>
       </c>
       <c r="K86" t="s">
-        <v>555</v>
+        <v>638</v>
       </c>
       <c r="L86" t="s">
-        <v>556</v>
+        <v>639</v>
       </c>
       <c r="M86" t="n">
         <v>2</v>
@@ -7604,41 +8199,45 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>556</v>
+        <v>639</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>37589</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>640</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>557</v>
+        <v>641</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>558</v>
+        <v>642</v>
       </c>
       <c r="J87" t="s">
-        <v>559</v>
+        <v>643</v>
       </c>
       <c r="K87" t="s">
-        <v>560</v>
+        <v>644</v>
       </c>
       <c r="L87" t="s">
-        <v>561</v>
+        <v>645</v>
       </c>
       <c r="M87" t="n">
         <v>1</v>
@@ -7665,41 +8264,45 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>562</v>
+        <v>646</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>37589</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>647</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>563</v>
+        <v>648</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>564</v>
+        <v>649</v>
       </c>
       <c r="J88" t="s">
-        <v>565</v>
+        <v>650</v>
       </c>
       <c r="K88" t="s">
-        <v>566</v>
+        <v>651</v>
       </c>
       <c r="L88" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="M88" t="n">
         <v>1</v>
@@ -7718,7 +8321,7 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>568</v>
+        <v>653</v>
       </c>
     </row>
   </sheetData>
